--- a/Lab2/schemes.xlsx
+++ b/Lab2/schemes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDIA\Semestr V\mrs\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\sesja\MRSy-master\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D77D0-7341-407C-A99A-0DF8FEB7A94B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>student</author>
   </authors>
   <commentList>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="P13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>h</t>
   </si>
@@ -78,82 +77,10 @@
     <t>f''(x0)</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>II w tył p2</t>
-  </si>
-  <si>
-    <t>II w tył p1</t>
-  </si>
-  <si>
-    <t>II w tył p4</t>
-  </si>
-  <si>
-    <t>I w tył p4</t>
-  </si>
-  <si>
-    <t>I w tył p1</t>
-  </si>
-  <si>
-    <t>I w tył p2</t>
-  </si>
-  <si>
-    <t>I w tył p3</t>
-  </si>
-  <si>
-    <t>II w tył p3</t>
-  </si>
-  <si>
-    <t>I centralny dla p2</t>
-  </si>
-  <si>
-    <t>I centralny dla p6</t>
-  </si>
-  <si>
-    <t>I centralny dla p4</t>
-  </si>
-  <si>
-    <t>II centralny dla p2</t>
-  </si>
-  <si>
-    <t>II centralny dla p6</t>
-  </si>
-  <si>
-    <t>II centralny dla p4</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
-    <t>Eror</t>
-  </si>
-  <si>
-    <t>w przod I p1</t>
-  </si>
-  <si>
-    <t>w przod I p4</t>
-  </si>
-  <si>
-    <t>w przod I p2</t>
-  </si>
-  <si>
-    <t>w przod II  p1</t>
-  </si>
-  <si>
-    <t>w przod II p4</t>
-  </si>
-  <si>
-    <t>w przod I p3</t>
-  </si>
-  <si>
-    <t>w przod II p2</t>
-  </si>
-  <si>
     <t>zestawienie błędów przybliżeń dla II rzędu schematu Dc jest niemożliwe w skali log (ujemne wartości)</t>
-  </si>
-  <si>
-    <t>w przod II p3</t>
   </si>
   <si>
     <t>D- p3, D- p4, Dc p4,  Dc p6, D+ p3, D+ p4 nachodzą na siebie</t>
@@ -179,12 +106,105 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>D- p1</t>
+  </si>
+  <si>
+    <t>D- p2</t>
+  </si>
+  <si>
+    <t>D+ p1</t>
+  </si>
+  <si>
+    <t>D+ p2</t>
+  </si>
+  <si>
+    <t>Dc p2</t>
+  </si>
+  <si>
+    <t>ED- p1</t>
+  </si>
+  <si>
+    <t>ED- p2</t>
+  </si>
+  <si>
+    <t>D- p3</t>
+  </si>
+  <si>
+    <t>D- p4</t>
+  </si>
+  <si>
+    <t>ED- p4</t>
+  </si>
+  <si>
+    <t>ED- p3</t>
+  </si>
+  <si>
+    <t>h_rz1</t>
+  </si>
+  <si>
+    <t>EDc p2</t>
+  </si>
+  <si>
+    <t>Edc p4</t>
+  </si>
+  <si>
+    <t>Edc p6</t>
+  </si>
+  <si>
+    <t>Dc p6</t>
+  </si>
+  <si>
+    <t>Dc p4</t>
+  </si>
+  <si>
+    <t>D+ p4</t>
+  </si>
+  <si>
+    <t>D+ p3</t>
+  </si>
+  <si>
+    <t>ED+ p1</t>
+  </si>
+  <si>
+    <t>ED+ p2</t>
+  </si>
+  <si>
+    <t>ED+ p3</t>
+  </si>
+  <si>
+    <t>ED+ p4</t>
+  </si>
+  <si>
+    <t>EDc p4</t>
+  </si>
+  <si>
+    <t>EDc p6</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Średnia</t>
+  </si>
+  <si>
+    <t>Suma bieżąca</t>
+  </si>
+  <si>
+    <t>Licznik</t>
+  </si>
+  <si>
+    <t>h_rz2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +228,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,9 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -250,7 +282,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -294,6 +326,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -373,8 +406,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.42703226802532035"/>
-                  <c:y val="0.10077647533877269"/>
+                  <c:x val="-0.33366350047147508"/>
+                  <c:y val="8.8442606101290053E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -442,9 +475,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$8:$C$15</c:f>
+              <c:f>Arkusz1!$M$2:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.3172269537177539E-2</c:v>
@@ -474,7 +507,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C866-45AA-87A5-09A644452F89}"/>
             </c:ext>
@@ -524,8 +557,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.44467932684884975"/>
-                  <c:y val="0.27292573722402347"/>
+                  <c:x val="-0.35645221054973725"/>
+                  <c:y val="0.25299438257335799"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -593,9 +626,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$18:$C$25</c:f>
+              <c:f>Arkusz1!$O$2:$O$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.2470781274036575E-3</c:v>
@@ -625,7 +658,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C866-45AA-87A5-09A644452F89}"/>
             </c:ext>
@@ -675,8 +708,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43683618959394782"/>
-                  <c:y val="0.3297842068383986"/>
+                  <c:x val="-0.34125973716422914"/>
+                  <c:y val="0.36854984387404854"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -744,10 +777,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$18:$E$25</c:f>
+              <c:f>Arkusz1!$Q$2:$Q$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.4707817127620508E-5</c:v>
                 </c:pt>
@@ -765,18 +798,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.3851593163662983E-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.2541972429007728E-13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2805312366026556E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C866-45AA-87A5-09A644452F89}"/>
             </c:ext>
@@ -826,8 +853,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17016952292728116"/>
-                  <c:y val="0.34352394864669067"/>
+                  <c:x val="-0.10767545886204187"/>
+                  <c:y val="0.41675161852984399"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -895,10 +922,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$8:$E$15</c:f>
+              <c:f>Arkusz1!$S$2:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.9791029038263019E-5</c:v>
                 </c:pt>
@@ -913,21 +940,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.3684166567127249E-13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1479706074624119E-13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0724754417879012E-13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.113198505071523E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-C866-45AA-87A5-09A644452F89}"/>
             </c:ext>
@@ -941,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118496312"/>
-        <c:axId val="118497488"/>
+        <c:axId val="187043040"/>
+        <c:axId val="187041472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118496312"/>
+        <c:axId val="187043040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -992,6 +1010,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1058,12 +1077,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118497488"/>
+        <c:crossAx val="187041472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118497488"/>
+        <c:axId val="187041472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1111,6 +1130,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1140,7 +1160,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1177,7 +1197,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118496312"/>
+        <c:crossAx val="187043040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1191,6 +1211,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1258,7 +1279,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -1302,6 +1323,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1450,9 +1472,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$Z$39:$Z$46</c:f>
+              <c:f>Arkusz1!$M$67:$M$74</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.8929710996700182E-3</c:v>
@@ -1482,7 +1504,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-24E6-4346-81C5-C6A47522D85A}"/>
             </c:ext>
@@ -1601,10 +1623,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$AB$39:$AB$46</c:f>
+              <c:f>Arkusz1!$O$67:$O$73</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.2561302723281891E-5</c:v>
                 </c:pt>
@@ -1625,15 +1647,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0591527654923993E-13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9071857688431919E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-24E6-4346-81C5-C6A47522D85A}"/>
             </c:ext>
@@ -1752,10 +1771,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$AD$39:$AD$46</c:f>
+              <c:f>Arkusz1!$Q$67:$Q$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.4618476460175343E-4</c:v>
                 </c:pt>
@@ -1773,18 +1792,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.2672455558576701E-9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6106326827802775E-9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3359229812421916E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-24E6-4346-81C5-C6A47522D85A}"/>
             </c:ext>
@@ -1798,11 +1811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="938526319"/>
-        <c:axId val="937789439"/>
+        <c:axId val="351751728"/>
+        <c:axId val="351748984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="938526319"/>
+        <c:axId val="351751728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1849,6 +1862,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1915,12 +1929,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="937789439"/>
+        <c:crossAx val="351748984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="937789439"/>
+        <c:axId val="351748984"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1967,6 +1981,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1996,7 +2011,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2033,7 +2048,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938526319"/>
+        <c:crossAx val="351751728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2047,6 +2062,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2078,14 +2094,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2121,7 +2137,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -2165,6 +2181,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2265,9 +2282,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$Y$39:$Y$46</c:f>
+              <c:f>Arkusz1!$L$67:$L$74</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.960229460225276</c:v>
@@ -2297,7 +2314,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DE73-44A1-B81C-F16B0BBB3C89}"/>
             </c:ext>
@@ -2368,9 +2385,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$AA$39:$AA$46</c:f>
+              <c:f>Arkusz1!$N$67:$N$74</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.9552439278228827</c:v>
@@ -2400,7 +2417,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DE73-44A1-B81C-F16B0BBB3C89}"/>
             </c:ext>
@@ -2414,11 +2431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="944935439"/>
-        <c:axId val="877826623"/>
+        <c:axId val="351752512"/>
+        <c:axId val="351749768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="944935439"/>
+        <c:axId val="351752512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2465,6 +2482,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2531,12 +2549,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877826623"/>
+        <c:crossAx val="351749768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="877826623"/>
+        <c:axId val="351749768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2574,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2593,7 +2611,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944935439"/>
+        <c:crossAx val="351752512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2607,6 +2625,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2638,14 +2657,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2681,7 +2700,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -2725,6 +2744,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2825,9 +2845,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$Y$39:$Y$46</c:f>
+              <c:f>Arkusz1!$L$67:$L$74</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.960229460225276</c:v>
@@ -2857,7 +2877,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9800-4B64-9FFF-4D6349EC968E}"/>
             </c:ext>
@@ -2928,9 +2948,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$AA$39:$AA$46</c:f>
+              <c:f>Arkusz1!$N$67:$N$74</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.9552439278228827</c:v>
@@ -2960,7 +2980,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9800-4B64-9FFF-4D6349EC968E}"/>
             </c:ext>
@@ -2974,11 +2994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="879894255"/>
-        <c:axId val="702971631"/>
+        <c:axId val="351750944"/>
+        <c:axId val="351751336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="879894255"/>
+        <c:axId val="351750944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,6 +3044,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3090,12 +3111,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702971631"/>
+        <c:crossAx val="351751336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="702971631"/>
+        <c:axId val="351751336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3136,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3152,7 +3173,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879894255"/>
+        <c:crossAx val="351750944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3166,6 +3187,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3197,14 +3219,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3240,7 +3262,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -3290,6 +3312,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3438,9 +3461,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$29:$C$36</c:f>
+              <c:f>Arkusz1!$M$13:$M$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.5914315576593951E-3</c:v>
@@ -3470,7 +3493,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8011-4927-8EF2-F7BB6D33DA49}"/>
             </c:ext>
@@ -3589,10 +3612,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$39:$C$46</c:f>
+              <c:f>Arkusz1!$O$13:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.1806661562328031E-6</c:v>
                 </c:pt>
@@ -3607,21 +3630,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.9285909514983359E-14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3163697322797816E-14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7663648321786241E-13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.2541972429007728E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8011-4927-8EF2-F7BB6D33DA49}"/>
             </c:ext>
@@ -3740,10 +3754,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Arkusz1!$E$29,Arkusz1!$E$30,Arkusz1!$E$31,Arkusz1!$E$33,Arkusz1!$E$34)</c:f>
+              <c:f>Arkusz1!$Q$13:$Q$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6.8105757700109848E-9</c:v>
                 </c:pt>
@@ -3752,18 +3766,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.9920072216264089E-15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1530333899354446E-14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6280314570121845E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8011-4927-8EF2-F7BB6D33DA49}"/>
             </c:ext>
@@ -3777,11 +3785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205195688"/>
-        <c:axId val="32696304"/>
+        <c:axId val="187040688"/>
+        <c:axId val="187043824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205195688"/>
+        <c:axId val="187040688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3828,6 +3836,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3894,12 +3903,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32696304"/>
+        <c:crossAx val="187043824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32696304"/>
+        <c:axId val="187043824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3946,6 +3955,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3975,7 +3985,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4012,7 +4022,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205195688"/>
+        <c:crossAx val="187040688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4026,6 +4036,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4093,7 +4104,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -4143,6 +4154,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4222,8 +4234,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.5247468339754271"/>
-                  <c:y val="0.14578332241653921"/>
+                  <c:x val="-0.49284905380372562"/>
+                  <c:y val="0.14588824656384392"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4291,9 +4303,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$50:$C$57</c:f>
+              <c:f>Arkusz1!$M$24:$M$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.6355132652496218E-2</c:v>
@@ -4323,7 +4335,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0430-425F-829E-60311E259E69}"/>
             </c:ext>
@@ -4373,8 +4385,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.51140904947919064"/>
-                  <c:y val="0.35004978409332366"/>
+                  <c:x val="-0.48882162187874645"/>
+                  <c:y val="0.3388786550041355"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4442,9 +4454,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$60:$C$67</c:f>
+              <c:f>Arkusz1!$O$24:$O$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.0995641062965262E-3</c:v>
@@ -4474,7 +4486,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0430-425F-829E-60311E259E69}"/>
             </c:ext>
@@ -4524,8 +4536,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.42895162476647652"/>
-                  <c:y val="0.36516017834470965"/>
+                  <c:x val="-0.32678041552216264"/>
+                  <c:y val="0.37590151354180018"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4593,10 +4605,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$60:$E$67</c:f>
+              <c:f>Arkusz1!$Q$24:$Q$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0182359642407768E-4</c:v>
                 </c:pt>
@@ -4614,18 +4626,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.2665874973363316E-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2174705688039467E-12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8480330033507926E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0430-425F-829E-60311E259E69}"/>
             </c:ext>
@@ -4675,8 +4681,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.27612803792174861"/>
-                  <c:y val="0.34024749806395194"/>
+                  <c:x val="-0.14743383761293397"/>
+                  <c:y val="0.46592006623830701"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4744,10 +4750,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$50:$E$57</c:f>
+              <c:f>Arkusz1!$S$24:$S$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.7833177337500672E-5</c:v>
                 </c:pt>
@@ -4762,21 +4768,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5357493882438575E-13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2581936320875684E-13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4602542225693469E-13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5009772858529686E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-0430-425F-829E-60311E259E69}"/>
             </c:ext>
@@ -4790,11 +4787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399377864"/>
-        <c:axId val="585911168"/>
+        <c:axId val="187044216"/>
+        <c:axId val="187043432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399377864"/>
+        <c:axId val="187044216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4841,6 +4838,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4907,12 +4905,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585911168"/>
+        <c:crossAx val="187043432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585911168"/>
+        <c:axId val="187043432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4959,6 +4957,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4988,7 +4987,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5025,7 +5024,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399377864"/>
+        <c:crossAx val="187044216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5039,6 +5038,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5106,7 +5106,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -5150,6 +5150,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5229,8 +5230,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.49393554359380498"/>
-                  <c:y val="0.20684483176579754"/>
+                  <c:x val="-0.44983051525197376"/>
+                  <c:y val="0.20995292702394644"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5298,9 +5299,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$G$8:$G$15</c:f>
+              <c:f>Arkusz1!$M$35:$M$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9.7016378465871939E-2</c:v>
@@ -5330,7 +5331,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-03B6-44D7-BF0F-6567D314E4A5}"/>
             </c:ext>
@@ -5380,8 +5381,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.23155998442045811"/>
-                  <c:y val="0.21930724862908435"/>
+                  <c:x val="-0.38874038265890448"/>
+                  <c:y val="0.39638753819587924"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5449,10 +5450,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$G$18:$G$25</c:f>
+              <c:f>Arkusz1!$O$35:$O$41</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.73719987009191E-3</c:v>
                 </c:pt>
@@ -5473,15 +5474,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.9080873537322702E-9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0460869739406036E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-03B6-44D7-BF0F-6567D314E4A5}"/>
             </c:ext>
@@ -5531,8 +5529,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40787424079664547"/>
-                  <c:y val="0.39387414498483653"/>
+                  <c:x val="-0.27442545854473266"/>
+                  <c:y val="0.4435796264645025"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5600,10 +5598,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$I$18:$I$25</c:f>
+              <c:f>Arkusz1!$Q$35:$Q$39</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.2358430681972461E-4</c:v>
                 </c:pt>
@@ -5618,21 +5616,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.7689395461841855E-10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4209831644684812E-9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1941428925192952E-9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1266533023190917E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-03B6-44D7-BF0F-6567D314E4A5}"/>
             </c:ext>
@@ -5682,8 +5671,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12838385688422918"/>
-                  <c:y val="5.9980790522098752E-2"/>
+                  <c:x val="-2.9820416369209624E-2"/>
+                  <c:y val="0.35430701684460947"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5751,10 +5740,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$I$8:$I$15</c:f>
+              <c:f>Arkusz1!$S$35:$S$38</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6.9752961320279638E-6</c:v>
                 </c:pt>
@@ -5766,24 +5755,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.3332907000673799E-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5484934969338724E-10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5312061890936377E-9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.8256409246902905E-8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5675454008197178E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-03B6-44D7-BF0F-6567D314E4A5}"/>
             </c:ext>
@@ -5797,11 +5774,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="32689248"/>
-        <c:axId val="32693560"/>
+        <c:axId val="187044608"/>
+        <c:axId val="187045000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32689248"/>
+        <c:axId val="187044608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5848,6 +5825,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5914,12 +5892,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32693560"/>
+        <c:crossAx val="187045000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32693560"/>
+        <c:axId val="187045000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5966,6 +5944,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5995,7 +5974,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6032,7 +6011,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32689248"/>
+        <c:crossAx val="187044608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6046,6 +6025,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6113,7 +6093,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -6157,6 +6137,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6305,9 +6286,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$G$50:$G$57</c:f>
+              <c:f>Arkusz1!$M$57:$M$64</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9.3573728514509735E-2</c:v>
@@ -6337,7 +6318,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C4F3-4773-8D5A-D3C2B48641C5}"/>
             </c:ext>
@@ -6456,10 +6437,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$G$60:$G$67</c:f>
+              <c:f>Arkusz1!$O$57:$O$62</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.641513218352932E-3</c:v>
                 </c:pt>
@@ -6477,18 +6458,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.7812320037052842E-8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2745258015645078E-8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2765893215612749E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C4F3-4773-8D5A-D3C2B48641C5}"/>
             </c:ext>
@@ -6607,10 +6582,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$I$60:$I$67</c:f>
+              <c:f>Arkusz1!$Q$57:$Q$61</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.4590181951239565E-4</c:v>
                 </c:pt>
@@ -6625,21 +6600,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.3292943108805844E-10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.7689395461841855E-10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6430277693935125E-9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0460869739406036E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C4F3-4773-8D5A-D3C2B48641C5}"/>
             </c:ext>
@@ -6758,10 +6724,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$I$50:$I$57</c:f>
+              <c:f>Arkusz1!$S$57:$S$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.6943377448528381E-5</c:v>
                 </c:pt>
@@ -6773,24 +6739,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.3332907000673799E-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0879162570809342E-9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.5484934969338724E-10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7685312177843144E-8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4597202097066386E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-C4F3-4773-8D5A-D3C2B48641C5}"/>
             </c:ext>
@@ -6804,11 +6758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402112200"/>
-        <c:axId val="402122784"/>
+        <c:axId val="187045784"/>
+        <c:axId val="187046176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402112200"/>
+        <c:axId val="187045784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6855,6 +6809,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6921,12 +6876,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402122784"/>
+        <c:crossAx val="187046176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402122784"/>
+        <c:axId val="187046176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6973,6 +6928,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7002,7 +6958,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7039,7 +6995,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402112200"/>
+        <c:crossAx val="187045784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7053,6 +7009,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7120,7 +7077,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -7164,6 +7121,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7276,9 +7234,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$8:$B$15</c:f>
+              <c:f>Arkusz1!$L$2:$L$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.96850875866278352</c:v>
@@ -7308,7 +7266,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -7379,9 +7337,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$18:$B$25</c:f>
+              <c:f>Arkusz1!$N$2:$N$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95858356725300964</c:v>
@@ -7411,7 +7369,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -7482,9 +7440,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$18:$D$25</c:f>
+              <c:f>Arkusz1!$P$2:$P$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95529178130847836</c:v>
@@ -7514,7 +7472,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -7585,9 +7543,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$8:$D$15</c:f>
+              <c:f>Arkusz1!$R$2:$R$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95531669809656772</c:v>
@@ -7617,7 +7575,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -7688,9 +7646,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$29:$B$36</c:f>
+              <c:f>Arkusz1!$L$13:$L$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95374505756794659</c:v>
@@ -7720,7 +7678,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -7791,7 +7749,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$39:$B$46</c:f>
+              <c:f>Arkusz1!$N$13:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7823,7 +7781,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -7900,9 +7858,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$29:$D$36</c:f>
+              <c:f>Arkusz1!$P$13:$P$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95533648231503021</c:v>
@@ -7932,7 +7890,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -8003,9 +7961,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$50:$B$57</c:f>
+              <c:f>Arkusz1!$L$24:$L$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.93898135647310976</c:v>
@@ -8035,7 +7993,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -8106,9 +8064,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$60:$B$67</c:f>
+              <c:f>Arkusz1!$N$24:$N$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95843605323190251</c:v>
@@ -8138,7 +8096,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -8215,9 +8173,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$60:$D$67</c:f>
+              <c:f>Arkusz1!$P$24:$P$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95543831272203006</c:v>
@@ -8247,7 +8205,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -8324,9 +8282,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$50:$D$57</c:f>
+              <c:f>Arkusz1!$R$24:$R$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95531865594826848</c:v>
@@ -8356,7 +8314,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-4E4B-4F9A-8ED9-329D5832708C}"/>
             </c:ext>
@@ -8370,11 +8328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="595084352"/>
-        <c:axId val="595087880"/>
+        <c:axId val="351745848"/>
+        <c:axId val="351746240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="595084352"/>
+        <c:axId val="351745848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8421,6 +8379,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8487,12 +8446,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595087880"/>
+        <c:crossAx val="351746240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595087880"/>
+        <c:axId val="351746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8512,7 +8471,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8549,7 +8508,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595084352"/>
+        <c:crossAx val="351745848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8563,6 +8522,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8630,7 +8590,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -8674,6 +8634,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8774,9 +8735,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$8:$F$15</c:f>
+              <c:f>Arkusz1!$L$35:$L$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.19850382819546761</c:v>
@@ -8806,7 +8767,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -8877,9 +8838,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$18:$F$25</c:f>
+              <c:f>Arkusz1!$N$35:$N$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29725740653143146</c:v>
@@ -8909,7 +8870,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -8980,9 +8941,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$18:$H$25</c:f>
+              <c:f>Arkusz1!$P$35:$P$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29634379096815927</c:v>
@@ -9012,7 +8973,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9083,9 +9044,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$8:$H$15</c:f>
+              <c:f>Arkusz1!$R$35:$R$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29551323136520752</c:v>
@@ -9115,7 +9076,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9186,9 +9147,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$29:$F$36</c:f>
+              <c:f>Arkusz1!$L$46:$L$53</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29527402189673529</c:v>
@@ -9218,7 +9179,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9289,7 +9250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$39:$F$46</c:f>
+              <c:f>Arkusz1!$N$46:$N$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9321,7 +9282,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9398,9 +9359,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$29:$H$36</c:f>
+              <c:f>Arkusz1!$P$46:$P$53</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29552020613444868</c:v>
@@ -9430,7 +9391,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9501,9 +9462,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$50:$F$57</c:f>
+              <c:f>Arkusz1!$L$57:$L$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.38909393517584928</c:v>
@@ -9533,7 +9494,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9604,9 +9565,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$60:$F$67</c:f>
+              <c:f>Arkusz1!$N$57:$N$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29916171987969248</c:v>
@@ -9636,7 +9597,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9713,9 +9674,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$60:$H$67</c:f>
+              <c:f>Arkusz1!$P$57:$P$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29477430484182715</c:v>
@@ -9745,7 +9706,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9816,9 +9777,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$50:$H$57</c:f>
+              <c:f>Arkusz1!$R$57:$R$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29548326328389102</c:v>
@@ -9848,7 +9809,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-71BB-4AFE-819B-A25BB0FB9969}"/>
             </c:ext>
@@ -9862,11 +9823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="616061544"/>
-        <c:axId val="616052136"/>
+        <c:axId val="351747024"/>
+        <c:axId val="351750552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="616061544"/>
+        <c:axId val="351747024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9913,6 +9874,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9979,12 +9941,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616052136"/>
+        <c:crossAx val="351750552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616052136"/>
+        <c:axId val="351750552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10004,7 +9966,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10041,7 +10003,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616061544"/>
+        <c:crossAx val="351747024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10055,6 +10017,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10122,7 +10085,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -10166,6 +10129,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10266,9 +10230,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$8:$B$15</c:f>
+              <c:f>Arkusz1!$L$2:$L$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.96850875866278352</c:v>
@@ -10298,7 +10262,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -10369,9 +10333,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$18:$B$25</c:f>
+              <c:f>Arkusz1!$N$2:$N$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95858356725300964</c:v>
@@ -10401,7 +10365,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -10472,9 +10436,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$18:$D$25</c:f>
+              <c:f>Arkusz1!$P$2:$P$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95529178130847836</c:v>
@@ -10504,7 +10468,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -10575,9 +10539,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$8:$D$15</c:f>
+              <c:f>Arkusz1!$R$2:$R$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95531669809656772</c:v>
@@ -10607,7 +10571,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -10678,9 +10642,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$29:$B$36</c:f>
+              <c:f>Arkusz1!$L$13:$L$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95374505756794659</c:v>
@@ -10710,7 +10674,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -10781,7 +10745,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$39:$B$46</c:f>
+              <c:f>Arkusz1!$N$13:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10813,7 +10777,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -10890,9 +10854,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$29:$D$36</c:f>
+              <c:f>Arkusz1!$P$13:$P$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95533648231503021</c:v>
@@ -10922,7 +10886,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -10993,9 +10957,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$50:$B$57</c:f>
+              <c:f>Arkusz1!$L$24:$L$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.93898135647310976</c:v>
@@ -11025,7 +10989,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -11096,9 +11060,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$60:$B$67</c:f>
+              <c:f>Arkusz1!$N$24:$N$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95843605323190251</c:v>
@@ -11128,7 +11092,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -11205,9 +11169,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$60:$D$67</c:f>
+              <c:f>Arkusz1!$P$24:$P$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95543831272203006</c:v>
@@ -11237,7 +11201,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -11308,9 +11272,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$50:$D$57</c:f>
+              <c:f>Arkusz1!$R$24:$R$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.95531865594826848</c:v>
@@ -11340,7 +11304,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-70E2-442A-BAC8-F7D91917C96B}"/>
             </c:ext>
@@ -11354,11 +11318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="616066248"/>
-        <c:axId val="616065464"/>
+        <c:axId val="351747416"/>
+        <c:axId val="351745064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="616066248"/>
+        <c:axId val="351747416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11404,6 +11368,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11470,12 +11435,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616065464"/>
+        <c:crossAx val="351745064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616065464"/>
+        <c:axId val="351745064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11495,7 +11460,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11532,7 +11497,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616066248"/>
+        <c:crossAx val="351747416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11546,6 +11511,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11613,7 +11579,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -11657,6 +11623,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11757,9 +11724,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$8:$F$15</c:f>
+              <c:f>Arkusz1!$L$35:$L$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.19850382819546761</c:v>
@@ -11789,7 +11756,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -11860,9 +11827,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$18:$F$25</c:f>
+              <c:f>Arkusz1!$N$35:$N$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29725740653143146</c:v>
@@ -11892,7 +11859,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -11963,9 +11930,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$18:$H$25</c:f>
+              <c:f>Arkusz1!$P$35:$P$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29634379096815927</c:v>
@@ -11995,7 +11962,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12066,9 +12033,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$8:$H$15</c:f>
+              <c:f>Arkusz1!$R$35:$R$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29551323136520752</c:v>
@@ -12098,7 +12065,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12169,9 +12136,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$29:$F$36</c:f>
+              <c:f>Arkusz1!$L$46:$L$53</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29527402189673529</c:v>
@@ -12201,7 +12168,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12272,7 +12239,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$39:$F$46</c:f>
+              <c:f>Arkusz1!$N$46:$N$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12304,7 +12271,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12381,9 +12348,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$29:$H$36</c:f>
+              <c:f>Arkusz1!$P$46:$P$53</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29552020613444868</c:v>
@@ -12413,7 +12380,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12484,9 +12451,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$50:$F$57</c:f>
+              <c:f>Arkusz1!$L$57:$L$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.38909393517584928</c:v>
@@ -12516,7 +12483,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12587,9 +12554,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$60:$F$67</c:f>
+              <c:f>Arkusz1!$N$57:$N$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29916171987969248</c:v>
@@ -12619,7 +12586,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12696,9 +12663,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$60:$H$67</c:f>
+              <c:f>Arkusz1!$P$57:$P$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29477430484182715</c:v>
@@ -12728,7 +12695,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12799,9 +12766,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$50:$H$57</c:f>
+              <c:f>Arkusz1!$R$57:$R$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.29548326328389102</c:v>
@@ -12831,7 +12798,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-7549-4D8F-AC68-E267655157A8}"/>
             </c:ext>
@@ -12845,11 +12812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="31975000"/>
-        <c:axId val="31974608"/>
+        <c:axId val="351748200"/>
+        <c:axId val="351745456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31975000"/>
+        <c:axId val="351748200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12895,6 +12862,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12961,12 +12929,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31974608"/>
+        <c:crossAx val="351745456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31974608"/>
+        <c:axId val="351745456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12986,7 +12954,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13023,7 +12991,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31975000"/>
+        <c:crossAx val="351748200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13037,6 +13005,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19779,23 +19748,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>111580</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>77561</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>46653</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>394609</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>153761</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>186790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Wykres 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19815,23 +19784,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>70755</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>396279</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>408215</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>27212</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>332050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>33949</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19851,23 +19820,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>353291</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>6493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89190</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>4452</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19887,23 +19856,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125185</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>383722</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>150058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>189149</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>26793</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19923,23 +19892,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>179613</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>249331</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100053</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Wykres 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19975,7 +19944,7 @@
         <xdr:cNvPr id="9" name="Wykres 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19995,15 +19964,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1411939</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1488139</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>96370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140633</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20011,7 +19980,7 @@
         <xdr:cNvPr id="10" name="Wykres 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20047,7 +20016,7 @@
         <xdr:cNvPr id="11" name="Wykres 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20083,7 +20052,7 @@
         <xdr:cNvPr id="12" name="Wykres 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20103,23 +20072,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>594056</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>128765</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>326339</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>480019</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>21189</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>311726</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>70291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Wykres 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70082EB8-ED52-4DCE-B6D6-8AD0ADE52B03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70082EB8-ED52-4DCE-B6D6-8AD0ADE52B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20139,15 +20108,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>80158</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>97476</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>96979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>55417</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>72735</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>69271</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20155,7 +20124,7 @@
         <xdr:cNvPr id="13" name="Wykres 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EFFB71-68FA-42C1-AC16-B2A9929A2ADD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EFFB71-68FA-42C1-AC16-B2A9929A2ADD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20175,23 +20144,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30510</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>183522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>339843</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>162740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="14" name="Wykres 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EACD944-A03C-4D17-A96D-4C1CDABCC9C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EACD944-A03C-4D17-A96D-4C1CDABCC9C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20536,33 +20505,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66:Q74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="25.44140625" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+    <col min="26" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -20570,8 +20549,35 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>1*10^-1</f>
         <v>0.1</v>
@@ -20584,1977 +20590,2200 @@
         <f>-SIN(0.3)</f>
         <v>-0.29552020666133955</v>
       </c>
+      <c r="K2" s="1">
+        <f>1*10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="4">
+        <f>(-SIN($A$13-A2)+SIN($A$13))/(A2)</f>
+        <v>0.96850875866278352</v>
+      </c>
+      <c r="M2" s="4">
+        <f>ABS($B$2-L2)</f>
+        <v>1.3172269537177539E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <f>((1/2)*SIN($A$13 -2*A2)-2*SIN($A$13 -A2)+(3/2)*SIN($A$13 ))/A2</f>
+        <v>0.95858356725300964</v>
+      </c>
+      <c r="O2" s="4">
+        <f>ABS($B$2-N2)</f>
+        <v>3.2470781274036575E-3</v>
+      </c>
+      <c r="P2" s="4">
+        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A2)+(3/2)*SIN($A$13-2*A2)-(1/3)*SIN($A$13-3*A2))/A2</f>
+        <v>0.95529178130847836</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" ref="Q2:Q9" si="0">ABS($B$2-P2)</f>
+        <v>4.4707817127620508E-5</v>
+      </c>
+      <c r="R2" s="4">
+        <f>((1/4)*SIN($A$13-4*A2)-(4/3)*SIN($A$13-3*A2)+3*SIN($A$13-2*A2)-4*SIN($A$13-A2)+(25/12)*SIN($A$13))/A2</f>
+        <v>0.95531669809656772</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:S9" si="1">ABS($B$2-R2)</f>
+        <v>1.9791029038263019E-5</v>
+      </c>
       <c r="AK2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>5*10^-2</f>
         <v>0.05</v>
       </c>
+      <c r="K3" s="1">
+        <f>5*10^-2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="4">
+        <f>(-SIN($A$13-A3)+SIN($A$13))/(A3)</f>
+        <v>0.96232494813633218</v>
+      </c>
+      <c r="M3" s="4">
+        <f>ABS($B$2-L3)</f>
+        <v>6.9884590107262001E-3</v>
+      </c>
+      <c r="N3" s="4">
+        <f>((1/2)*SIN($A$13 -2*A3)-2*SIN($A$13 -A3)+(3/2)*SIN($A$13 ))/A3</f>
+        <v>0.95614113760988051</v>
+      </c>
+      <c r="O3" s="4">
+        <f>ABS($B$2-N3)</f>
+        <v>8.0464848427452829E-4</v>
+      </c>
+      <c r="P3" s="4">
+        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A3)+(3/2)*SIN($A$13-2*A3)-(1/3)*SIN($A$13-3*A3))/A3</f>
+        <v>0.95532906300558162</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4261200243563863E-6</v>
+      </c>
+      <c r="R3" s="4">
+        <f>((1/4)*SIN($A$13-4*A3)-(4/3)*SIN($A$13-3*A3)+3*SIN($A$13-2*A3)-4*SIN($A$13-A3)+(25/12)*SIN($A$13))/A3</f>
+        <v>0.95533526883581299</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2202897929913803E-6</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>1*10^-2</f>
         <v>0.01</v>
       </c>
+      <c r="K4" s="1">
+        <f>1*10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="4">
+        <f>(-SIN($A$13-A4)+SIN($A$13))/(A4)</f>
+        <v>0.95679815565040127</v>
+      </c>
+      <c r="M4" s="4">
+        <f>ABS($B$2-L4)</f>
+        <v>1.4616665247952909E-3</v>
+      </c>
+      <c r="N4" s="4">
+        <f>((1/2)*SIN($A$13 -2*A4)-2*SIN($A$13 -A4)+(3/2)*SIN($A$13 ))/A4</f>
+        <v>0.95536840643950516</v>
+      </c>
+      <c r="O4" s="4">
+        <f>ABS($B$2-N4)</f>
+        <v>3.1917313899176847E-5</v>
+      </c>
+      <c r="P4" s="4">
+        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A4)+(3/2)*SIN($A$13-2*A4)-(1/3)*SIN($A$13-3*A4))/A4</f>
+        <v>0.95533641811761105</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1007994928429241E-8</v>
+      </c>
+      <c r="R4" s="4">
+        <f>((1/4)*SIN($A$13-4*A4)-(4/3)*SIN($A$13-3*A4)+3*SIN($A$13-2*A4)-4*SIN($A$13-A4)+(25/12)*SIN($A$13))/A4</f>
+        <v>0.95533648720537157</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9202344159197082E-9</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>5*10^-3</f>
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="K5" s="1">
+        <f>5*10^-3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f>(-SIN($A$13-A5)+SIN($A$13))/(A5)</f>
+        <v>0.95607130753936342</v>
+      </c>
+      <c r="M5" s="4">
+        <f>ABS($B$2-L5)</f>
+        <v>7.3481841375744317E-4</v>
+      </c>
+      <c r="N5" s="4">
+        <f>((1/2)*SIN($A$13 -2*A5)-2*SIN($A$13 -A5)+(3/2)*SIN($A$13 ))/A5</f>
+        <v>0.95534445942832003</v>
+      </c>
+      <c r="O5" s="4">
+        <f>ABS($B$2-N5)</f>
+        <v>7.9703027140443083E-6</v>
+      </c>
+      <c r="P5" s="4">
+        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A5)+(3/2)*SIN($A$13-2*A5)-(1/3)*SIN($A$13-3*A5))/A5</f>
+        <v>0.9553364800699099</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0556960818943821E-9</v>
+      </c>
+      <c r="R5" s="4">
+        <f>((1/4)*SIN($A$13-4*A5)-(4/3)*SIN($A$13-3*A5)+3*SIN($A$13-2*A5)-4*SIN($A$13-A5)+(25/12)*SIN($A$13))/A5</f>
+        <v>0.95533648900592016</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.196858168128756E-10</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>1*10^-3</f>
         <v>1E-3</v>
       </c>
+      <c r="K6" s="1">
+        <f>1*10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L6" s="4">
+        <f>(-SIN($A$13-A6)+SIN($A$13))/(A6)</f>
+        <v>0.95548408999385215</v>
+      </c>
+      <c r="M6" s="4">
+        <f>ABS($B$2-L6)</f>
+        <v>1.4760086824616714E-4</v>
+      </c>
+      <c r="N6" s="4">
+        <f>((1/2)*SIN($A$13 -2*A6)-2*SIN($A$13 -A6)+(3/2)*SIN($A$13 ))/A6</f>
+        <v>0.95533680764481321</v>
+      </c>
+      <c r="O6" s="4">
+        <f>ABS($B$2-N6)</f>
+        <v>3.185192072319154E-7</v>
+      </c>
+      <c r="P6" s="4">
+        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A6)+(3/2)*SIN($A$13-2*A6)-(1/3)*SIN($A$13-3*A6))/A6</f>
+        <v>0.9553364890518834</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="0"/>
+        <v>7.372258359339412E-11</v>
+      </c>
+      <c r="R6" s="4">
+        <f>((1/4)*SIN($A$13-4*A6)-(4/3)*SIN($A$13-3*A6)+3*SIN($A$13-2*A6)-4*SIN($A$13-A6)+(25/12)*SIN($A$13))/A6</f>
+        <v>0.95533648912526914</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3684166567127249E-13</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>5*10^-4</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
+      <c r="K7" s="1">
+        <f>5*10^-4</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L7" s="4">
+        <f>(-SIN($A$13-A7)+SIN($A$13))/(A7)</f>
+        <v>0.95541032936996562</v>
+      </c>
+      <c r="M7" s="4">
+        <f>ABS($B$2-L7)</f>
+        <v>7.3840244359635321E-5</v>
+      </c>
+      <c r="N7" s="4">
+        <f>((1/2)*SIN($A$13 -2*A7)-2*SIN($A$13 -A7)+(3/2)*SIN($A$13 ))/A7</f>
+        <v>0.95533656874602357</v>
+      </c>
+      <c r="O7" s="4">
+        <f>ABS($B$2-N7)</f>
+        <v>7.9620417592352055E-8</v>
+      </c>
+      <c r="P7" s="4">
+        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A7)+(3/2)*SIN($A$13-2*A7)-(1/3)*SIN($A$13-3*A7))/A7</f>
+        <v>0.95533648911622082</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3851593163662983E-12</v>
+      </c>
+      <c r="R7" s="4">
+        <f>((1/4)*SIN($A$13-4*A7)-(4/3)*SIN($A$13-3*A7)+3*SIN($A$13-2*A7)-4*SIN($A$13-A7)+(25/12)*SIN($A$13))/A7</f>
+        <v>0.95533648912549118</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1479706074624119E-13</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>1*10^-4</f>
         <v>1E-4</v>
       </c>
-      <c r="B8" s="1">
-        <f>(-SIN($A$13-A2)+SIN($A$13))/(A2)</f>
-        <v>0.96850875866278352</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:C15" si="0">ABS($B$2-B8)</f>
-        <v>1.3172269537177539E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f>((1/4)*SIN($A$13-4*A2)-(4/3)*SIN($A$13-3*A2)+3*SIN($A$13-2*A2)-4*SIN($A$13-A2)+(25/12)*SIN($A$13))/A2</f>
-        <v>0.95531669809656772</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E15" si="1">ABS($B$2-D8)</f>
-        <v>1.9791029038263019E-5</v>
-      </c>
-      <c r="F8" s="1">
-        <f>(SIN($A$13-2*A2)-2*SIN($A$13-A2)+SIN($A$13))/(A2^2)</f>
-        <v>-0.19850382819546761</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G15" si="2">ABS($C$2-F8)</f>
-        <v>9.7016378465871939E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f>((-5/6)*SIN($A$13-5*A2)+(61/12)*SIN($A$13-4*A2)-13*SIN($A$13-3*A2)+(107/6)*SIN($A$13-2*A2)-(77/6)*SIN($A$13-A2)+(15/4)*SIN($A$13))/(A2^2)</f>
-        <v>-0.29551323136520752</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I15" si="3">ABS($C$2-H8)</f>
-        <v>6.9752961320279638E-6</v>
+      <c r="K8" s="1">
+        <f>1*10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L8" s="4">
+        <f>(-SIN($A$13-A8)+SIN($A$13))/(A8)</f>
+        <v>0.95535126354351352</v>
+      </c>
+      <c r="M8" s="4">
+        <f>ABS($B$2-L8)</f>
+        <v>1.4774417907537085E-5</v>
+      </c>
+      <c r="N8" s="4">
+        <f>((1/2)*SIN($A$13 -2*A8)-2*SIN($A$13 -A8)+(3/2)*SIN($A$13 ))/A8</f>
+        <v>0.95533649230983286</v>
+      </c>
+      <c r="O8" s="4">
+        <f>ABS($B$2-N8)</f>
+        <v>3.1842268821691277E-9</v>
+      </c>
+      <c r="P8" s="4">
+        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A8)+(3/2)*SIN($A$13-2*A8)-(1/3)*SIN($A$13-3*A8))/A8</f>
+        <v>0.95533648912488056</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2541972429007728E-13</v>
+      </c>
+      <c r="R8" s="4">
+        <f>((1/4)*SIN($A$13-4*A8)-(4/3)*SIN($A$13-3*A8)+3*SIN($A$13-2*A8)-4*SIN($A$13-A8)+(25/12)*SIN($A$13))/A8</f>
+        <v>0.95533648912571323</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0724754417879012E-13</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>5*10^-5</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="B9" s="1">
-        <f>(-SIN($A$13-A3)+SIN($A$13))/(A3)</f>
-        <v>0.96232494813633218</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="K9" s="1">
+        <f>5*10^-5</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L9" s="4">
+        <f>(-SIN($A$13-A9)+SIN($A$13))/(A9)</f>
+        <v>0.95534387673179566</v>
+      </c>
+      <c r="M9" s="4">
+        <f>ABS($B$2-L9)</f>
+        <v>7.3876061896793743E-6</v>
+      </c>
+      <c r="N9" s="4">
+        <f>((1/2)*SIN($A$13 -2*A9)-2*SIN($A$13 -A9)+(3/2)*SIN($A$13 ))/A9</f>
+        <v>0.95533648991952269</v>
+      </c>
+      <c r="O9" s="4">
+        <f>ABS($B$2-N9)</f>
+        <v>7.9391671015116572E-10</v>
+      </c>
+      <c r="P9" s="4">
+        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A9)+(3/2)*SIN($A$13-2*A9)-(1/3)*SIN($A$13-3*A9))/A9</f>
+        <v>0.95533648912432545</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="0"/>
-        <v>6.9884590107262001E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <f>((1/4)*SIN($A$13-4*A3)-(4/3)*SIN($A$13-3*A3)+3*SIN($A$13-2*A3)-4*SIN($A$13-A3)+(25/12)*SIN($A$13))/A3</f>
-        <v>0.95533526883581299</v>
-      </c>
-      <c r="E9">
+        <v>1.2805312366026556E-12</v>
+      </c>
+      <c r="R9" s="4">
+        <f>((1/4)*SIN($A$13-4*A9)-(4/3)*SIN($A$13-3*A9)+3*SIN($A$13-2*A9)-4*SIN($A$13-A9)+(25/12)*SIN($A$13))/A9</f>
+        <v>0.95533648912349278</v>
+      </c>
+      <c r="S9" s="5">
         <f t="shared" si="1"/>
-        <v>1.2202897929913803E-6</v>
-      </c>
-      <c r="F9" s="1">
+        <v>2.113198505071523E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="1">
+        <f>1*10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="4">
+        <f>(0.5*SIN($A$13+A2)-0.5*SIN($A$13-A2))/(A2)</f>
+        <v>0.95374505756794659</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" ref="M13:M20" si="2">ABS($B$2-L13)</f>
+        <v>1.5914315576593951E-3</v>
+      </c>
+      <c r="N13" s="1">
+        <f>((-2/3)*SIN($A$13-A2)+(1/12)*SIN($A$13-2*A2)+(2/3)*SIN($A$13+A2)-(1/12)*SIN($A$13+2*A2))/A2</f>
+        <v>0.95533330845944975</v>
+      </c>
+      <c r="O13">
+        <f>ABS($B$2-N13)</f>
+        <v>3.1806661562328031E-6</v>
+      </c>
+      <c r="P13" s="4">
+        <f>(0.75*SIN($A$13+A2)-(3/20)*SIN($A$13+2*A2)+(1/60)*SIN($A$13+3*A2)-0.75*SIN($A$13-A2)+(3/20)*SIN($A$13-2*A2)-(1/60)*SIN($A$13-3*A2))/(A2)</f>
+        <v>0.95533648231503021</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>$B$2-P13</f>
+        <v>6.8105757700109848E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <f>5*10^-2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="4">
+        <f>(0.5*SIN($A$13+A3)-0.5*SIN($A$13-A3))/(A3)</f>
+        <v>0.954938482009284</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>3.980071163219856E-4</v>
+      </c>
+      <c r="N14" s="1">
+        <f>((-2/3)*SIN($A$13-A3)+(1/12)*SIN($A$13-2*A3)+(2/3)*SIN($A$13+A3)-(1/12)*SIN($A$13+2*A3))/A3</f>
+        <v>0.95533629015639632</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O20" si="3">ABS($B$2-N14)</f>
+        <v>1.9896920966377962E-7</v>
+      </c>
+      <c r="P14" s="4">
+        <f>(0.75*SIN($A$13+A3)-(3/20)*SIN($A$13+2*A3)+(1/60)*SIN($A$13+3*A3)-0.75*SIN($A$13-A3)+(3/20)*SIN($A$13-2*A3)-(1/60)*SIN($A$13-3*A3))/(A3)</f>
+        <v>0.9553364890190349</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" ref="Q14:Q20" si="4">$B$2-P14</f>
+        <v>1.0657108528988601E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <f>1*10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="4">
+        <f>(0.5*SIN($A$13+A4)-0.5*SIN($A$13-A4))/(A4)</f>
+        <v>0.95532056693039824</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5922195207740408E-5</v>
+      </c>
+      <c r="N15" s="1">
+        <f>((-2/3)*SIN($A$13-A4)+(1/12)*SIN($A$13-2*A4)+(2/3)*SIN($A$13+A4)-(1/12)*SIN($A$13+2*A4))/A4</f>
+        <v>0.95533648880716249</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>3.1844349379639425E-10</v>
+      </c>
+      <c r="P15" s="4">
+        <f>(0.75*SIN($A$13+A4)-(3/20)*SIN($A$13+2*A4)+(1/60)*SIN($A$13+3*A4)-0.75*SIN($A$13-A4)+(3/20)*SIN($A$13-2*A4)-(1/60)*SIN($A$13-3*A4))/(A4)</f>
+        <v>0.95533648912559599</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="4"/>
+        <v>9.9920072216264089E-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="K16" s="1">
+        <f>5*10^-3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L16" s="4">
+        <f>(0.5*SIN($A$13+A5)-0.5*SIN($A$13-A5))/(A5)</f>
+        <v>0.95533250856187912</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9805637268575111E-6</v>
+      </c>
+      <c r="N16" s="1">
+        <f>((-2/3)*SIN($A$13-A5)+(1/12)*SIN($A$13-2*A5)+(2/3)*SIN($A$13+A5)-(1/12)*SIN($A$13+2*A5))/A5</f>
+        <v>0.95533648910570634</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>1.9899637493381306E-11</v>
+      </c>
+      <c r="P16" s="4">
+        <f>(0.75*SIN($A$13+A5)-(3/20)*SIN($A$13+2*A5)+(1/60)*SIN($A$13+3*A5)-0.75*SIN($A$13-A5)+(3/20)*SIN($A$13-2*A5)-(1/60)*SIN($A$13-3*A5))/(A5)</f>
+        <v>0.9553364891256122</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>$B$2-P16</f>
+        <v>-6.2172489379008766E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <f>1*10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L17" s="4">
+        <f>(0.5*SIN($A$13+A6)-0.5*SIN($A$13-A6))/(A6)</f>
+        <v>0.95533632990285611</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5922274987367757E-7</v>
+      </c>
+      <c r="N17" s="1">
+        <f>((-2/3)*SIN($A$13-A6)+(1/12)*SIN($A$13-2*A6)+(2/3)*SIN($A$13+A6)-(1/12)*SIN($A$13+2*A6))/A6</f>
+        <v>0.9553364891255467</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>5.9285909514983359E-14</v>
+      </c>
+      <c r="P17" s="4">
+        <f>(0.75*SIN($A$13+A6)-(3/20)*SIN($A$13+2*A6)+(1/60)*SIN($A$13+3*A6)-0.75*SIN($A$13-A6)+(3/20)*SIN($A$13-2*A6)-(1/60)*SIN($A$13-3*A6))/(A6)</f>
+        <v>0.95533648912557445</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="4"/>
+        <v>3.1530333899354446E-14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <f>5*10^-4</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L18" s="4">
+        <f>(0.5*SIN($A$13+A7)-0.5*SIN($A$13-A7))/(A7)</f>
+        <v>0.95533644931988793</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9805718055063721E-8</v>
+      </c>
+      <c r="N18" s="1">
+        <f>((-2/3)*SIN($A$13-A7)+(1/12)*SIN($A$13-2*A7)+(2/3)*SIN($A$13+A7)-(1/12)*SIN($A$13+2*A7))/A7</f>
+        <v>0.95533648912553282</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="3"/>
+        <v>7.3163697322797816E-14</v>
+      </c>
+      <c r="P18" s="4">
+        <f>(0.75*SIN($A$13+A7)-(3/20)*SIN($A$13+2*A7)+(1/60)*SIN($A$13+3*A7)-0.75*SIN($A$13-A7)+(3/20)*SIN($A$13-2*A7)-(1/60)*SIN($A$13-3*A7))/(A7)</f>
+        <v>0.9553364891255397</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="4"/>
+        <v>6.6280314570121845E-14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <f>1*10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L19" s="4">
+        <f>(0.5*SIN($A$13+A8)-0.5*SIN($A$13-A8))/(A8)</f>
+        <v>0.95533648753337586</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.592230125524452E-9</v>
+      </c>
+      <c r="N19" s="1">
+        <f>((-2/3)*SIN($A$13-A8)+(1/12)*SIN($A$13-2*A8)+(2/3)*SIN($A$13+A8)-(1/12)*SIN($A$13+2*A8))/A8</f>
+        <v>0.95533648912578262</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7663648321786241E-13</v>
+      </c>
+      <c r="P19" s="4">
+        <f>(0.75*SIN($A$13+A8)-(3/20)*SIN($A$13+2*A8)+(1/60)*SIN($A$13+3*A8)-0.75*SIN($A$13-A8)+(3/20)*SIN($A$13-2*A8)-(1/60)*SIN($A$13-3*A8))/(A8)</f>
+        <v>0.95533648912576519</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.5920598173124745E-13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <f>5*10^-5</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L20" s="4">
+        <f>(0.5*SIN($A$13+A9)-0.5*SIN($A$13-A9))/(A9)</f>
+        <v>0.95533648872714316</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9846281829625241E-10</v>
+      </c>
+      <c r="N20" s="1">
+        <f>((-2/3)*SIN($A$13-A9)+(1/12)*SIN($A$13-2*A9)+(2/3)*SIN($A$13+A9)-(1/12)*SIN($A$13+2*A9))/A9</f>
+        <v>0.95533648912488056</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2541972429007728E-13</v>
+      </c>
+      <c r="P20" s="4">
+        <f>(0.75*SIN($A$13+A9)-(3/20)*SIN($A$13+2*A9)+(1/60)*SIN($A$13+3*A9)-0.75*SIN($A$13-A9)+(3/20)*SIN($A$13-2*A9)-(1/60)*SIN($A$13-3*A9))/(A9)</f>
+        <v>0.95533648912564384</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7858605139717838E-14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <f>1*10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L24" s="4">
+        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2))/[1]Arkusz1!A2</f>
+        <v>0.93898135647310976</v>
+      </c>
+      <c r="M24" s="4">
+        <f>ABS(L24-$B$2)</f>
+        <v>1.6355132652496218E-2</v>
+      </c>
+      <c r="N24" s="4">
+        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A2))/[1]Arkusz1!A2</f>
+        <v>0.95843605323190251</v>
+      </c>
+      <c r="O24" s="4">
+        <f>ABS(N24-$B$2)</f>
+        <v>3.0995641062965262E-3</v>
+      </c>
+      <c r="P24" s="4">
+        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A2)-(3/2)*SIN($A$13+2*A2)+(1/3)*SIN($A$13+3*A2))/A2</f>
+        <v>0.95543831272203006</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>ABS(P24-$B$2)</f>
+        <v>1.0182359642407768E-4</v>
+      </c>
+      <c r="R24" s="4">
+        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A2)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A2) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A2))/[1]Arkusz1!A2</f>
+        <v>0.95531865594826848</v>
+      </c>
+      <c r="S24" s="4">
+        <f>ABS(R24-$B$2)</f>
+        <v>1.7833177337500672E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <f>5*10^-2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L25" s="4">
+        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3))/[1]Arkusz1!A3</f>
+        <v>0.94755201588223592</v>
+      </c>
+      <c r="M25" s="4">
+        <f>ABS(L25-$B$2)</f>
+        <v>7.7844732433700603E-3</v>
+      </c>
+      <c r="N25" s="4">
+        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A3))/[1]Arkusz1!A3</f>
+        <v>0.95612267529136263</v>
+      </c>
+      <c r="O25" s="4">
+        <f>ABS(N25-$B$2)</f>
+        <v>7.8618616575665268E-4</v>
+      </c>
+      <c r="P25" s="4">
+        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A3)-(3/2)*SIN($A$13+2*A3)+(1/3)*SIN($A$13+3*A3))/A3</f>
+        <v>0.95534749455998269</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" ref="Q25:Q31" si="5">ABS(P25-$B$2)</f>
+        <v>1.1005434376709644E-5</v>
+      </c>
+      <c r="R25" s="4">
+        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A3)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A3) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A3))/[1]Arkusz1!A3</f>
+        <v>0.95533533030638607</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" ref="S25:S31" si="6">ABS(R25-$B$2)</f>
+        <v>1.1588192199152303E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="K26" s="1">
+        <f>1*10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="4">
+        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4))/[1]Arkusz1!A4</f>
+        <v>0.95384297821039521</v>
+      </c>
+      <c r="M26" s="4">
+        <f>ABS(L26-$B$2)</f>
+        <v>1.4935109152107717E-3</v>
+      </c>
+      <c r="N26" s="4">
+        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A4))/[1]Arkusz1!A4</f>
+        <v>0.95536825868188235</v>
+      </c>
+      <c r="O26" s="4">
+        <f>ABS(N26-$B$2)</f>
+        <v>3.1769556276373123E-5</v>
+      </c>
+      <c r="P26" s="4">
+        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A4)-(3/2)*SIN($A$13+2*A4)+(1/3)*SIN($A$13+3*A4))/A4</f>
+        <v>0.95533656586540694</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="5"/>
+        <v>7.6739800958236515E-8</v>
+      </c>
+      <c r="R26" s="4">
+        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A4)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A4) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A4))/[1]Arkusz1!A4</f>
+        <v>0.9553364872250738</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="6"/>
+        <v>1.9005321760801053E-9</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="K27" s="1">
+        <f>5*10^-3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L27" s="4">
+        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5))/[1]Arkusz1!A5</f>
+        <v>0.95459370958439482</v>
+      </c>
+      <c r="M27" s="4">
+        <f>ABS(L27-$B$2)</f>
+        <v>7.4277954121115819E-4</v>
+      </c>
+      <c r="N27" s="4">
+        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A5))/[1]Arkusz1!A5</f>
+        <v>0.95534444095839999</v>
+      </c>
+      <c r="O27" s="4">
+        <f>ABS(N27-$B$2)</f>
+        <v>7.9518327940064637E-6</v>
+      </c>
+      <c r="P27" s="4">
+        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A5)-(3/2)*SIN($A$13+2*A5)+(1/3)*SIN($A$13+3*A5))/A5</f>
+        <v>0.95533649853957181</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="5"/>
+        <v>9.4139658290970374E-9</v>
+      </c>
+      <c r="R27" s="4">
+        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A5)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A5) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A5))/[1]Arkusz1!A5</f>
+        <v>0.95533648900651413</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1909184749470114E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K28" s="1">
+        <f>1*10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L28" s="4">
+        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6))/[1]Arkusz1!A6</f>
+        <v>0.95518856981186007</v>
+      </c>
+      <c r="M28" s="4">
+        <f>ABS(L28-$B$2)</f>
+        <v>1.4791931374591449E-4</v>
+      </c>
+      <c r="N28" s="4">
+        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A6))/[1]Arkusz1!A6</f>
+        <v>0.95533680749715355</v>
+      </c>
+      <c r="O28" s="4">
+        <f>ABS(N28-$B$2)</f>
+        <v>3.1837154756964026E-7</v>
+      </c>
+      <c r="P28" s="4">
+        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A6)-(3/2)*SIN($A$13+2*A6)+(1/3)*SIN($A$13+3*A6))/A6</f>
+        <v>0.95533648919979286</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="5"/>
+        <v>7.418687886229236E-11</v>
+      </c>
+      <c r="R28" s="4">
+        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A6)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A6) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A6))/[1]Arkusz1!A6</f>
+        <v>0.95533648912535241</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="6"/>
+        <v>2.5357493882438575E-13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K29" s="1">
+        <f>5*10^-4</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L29" s="4">
+        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7))/[1]Arkusz1!A7</f>
+        <v>0.95526256926981024</v>
+      </c>
+      <c r="M29" s="4">
+        <f>ABS(L29-$B$2)</f>
+        <v>7.3919855795745448E-5</v>
+      </c>
+      <c r="N29" s="4">
+        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A7))/[1]Arkusz1!A7</f>
+        <v>0.95533656872781592</v>
+      </c>
+      <c r="O29" s="4">
+        <f>ABS(N29-$B$2)</f>
+        <v>7.9602209934748203E-8</v>
+      </c>
+      <c r="P29" s="4">
+        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A7)-(3/2)*SIN($A$13+2*A7)+(1/3)*SIN($A$13+3*A7))/A7</f>
+        <v>0.95533648913487257</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="5"/>
+        <v>9.2665874973363316E-12</v>
+      </c>
+      <c r="R29" s="4">
+        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A7)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A7) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A7))/[1]Arkusz1!A7</f>
+        <v>0.95533648912538016</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="6"/>
+        <v>2.2581936320875684E-13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <f>1*10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L30" s="4">
+        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8))/[1]Arkusz1!A8</f>
+        <v>0.95532171152323819</v>
+      </c>
+      <c r="M30" s="4">
+        <f>ABS(L30-$B$2)</f>
+        <v>1.4777602367788134E-5</v>
+      </c>
+      <c r="N30" s="4">
+        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A8))/[1]Arkusz1!A8</f>
+        <v>0.95533649231066553</v>
+      </c>
+      <c r="O30" s="4">
+        <f>ABS(N30-$B$2)</f>
+        <v>3.1850595494375966E-9</v>
+      </c>
+      <c r="P30" s="4">
+        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A8)-(3/2)*SIN($A$13+2*A8)+(1/3)*SIN($A$13+3*A8))/A8</f>
+        <v>0.95533648912682345</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2174705688039467E-12</v>
+      </c>
+      <c r="R30" s="4">
+        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A8)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A8) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A8))/[1]Arkusz1!A8</f>
+        <v>0.95533648912585201</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="6"/>
+        <v>2.4602542225693469E-13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <f>5*10^-5</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L31" s="4">
+        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9))/[1]Arkusz1!A9</f>
+        <v>0.95532910072249067</v>
+      </c>
+      <c r="M31" s="4">
+        <f>ABS(L31-$B$2)</f>
+        <v>7.3884031153159668E-6</v>
+      </c>
+      <c r="N31" s="4">
+        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A9))/[1]Arkusz1!A9</f>
+        <v>0.95533648992229825</v>
+      </c>
+      <c r="O31" s="4">
+        <f>ABS(N31-$B$2)</f>
+        <v>7.9669226771272861E-10</v>
+      </c>
+      <c r="P31" s="4">
+        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A9)-(3/2)*SIN($A$13+2*A9)+(1/3)*SIN($A$13+3*A9))/A9</f>
+        <v>0.95533648912599078</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="5"/>
+        <v>3.8480330033507926E-13</v>
+      </c>
+      <c r="R31" s="4">
+        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A9)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A9) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A9))/[1]Arkusz1!A9</f>
+        <v>0.955336489122105</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="6"/>
+        <v>3.5009772858529686E-12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <f>1*10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="4">
+        <f>(SIN($A$13-2*A2)-2*SIN($A$13-A2)+SIN($A$13))/(A2^2)</f>
+        <v>-0.19850382819546761</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" ref="M35:M42" si="7">ABS($C$2-L35)</f>
+        <v>9.7016378465871939E-2</v>
+      </c>
+      <c r="N35" s="4">
+        <f>(2*SIN($A$13)-5*SIN($A$13-A2)+4*SIN($A$13-2*A2)-SIN($A$13-3*A2))/(A2)^2</f>
+        <v>-0.29725740653143146</v>
+      </c>
+      <c r="O35" s="4">
+        <f>ABS($C$2-N35)</f>
+        <v>1.73719987009191E-3</v>
+      </c>
+      <c r="P35" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A2)+(19/2)*SIN($A$13-2*A2)-(14/3)*SIN($A$13-3*A2)+(11/12)*SIN($A$13-4*A2))/(A2^2)</f>
+        <v>-0.29634379096815927</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>ABS($C$2-P35)</f>
+        <v>8.2358430681972461E-4</v>
+      </c>
+      <c r="R35" s="4">
+        <f>((-5/6)*SIN($A$13-5*A2)+(61/12)*SIN($A$13-4*A2)-13*SIN($A$13-3*A2)+(107/6)*SIN($A$13-2*A2)-(77/6)*SIN($A$13-A2)+(15/4)*SIN($A$13))/(A2^2)</f>
+        <v>-0.29551323136520752</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" ref="S35:S42" si="8">ABS($C$2-R35)</f>
+        <v>6.9752961320279638E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <f>5*10^-2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L36" s="4">
         <f>(SIN($A$13-2*A3)-2*SIN($A$13-A3)+SIN($A$13))/(A3^2)</f>
         <v>-0.24735242105806682</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
+      <c r="M36" s="4">
+        <f t="shared" si="7"/>
         <v>4.8167785603272728E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="N36" s="4">
+        <f>(2*SIN($A$13)-5*SIN($A$13-A3)+4*SIN($A$13-2*A3)-SIN($A$13-3*A3))/(A3)^2</f>
+        <v>-0.29607689731597769</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" ref="O36:O42" si="9">ABS($C$2-N36)</f>
+        <v>5.5669065463814782E-4</v>
+      </c>
+      <c r="P36" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A3)+(19/2)*SIN($A$13-2*A3)-(14/3)*SIN($A$13-3*A3)+(11/12)*SIN($A$13-4*A3))/(A3^2)</f>
+        <v>-0.29562180309902758</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" ref="Q36:Q42" si="10">ABS($C$2-P36)</f>
+        <v>1.0159643768803406E-4</v>
+      </c>
+      <c r="R36" s="4">
         <f>((-5/6)*SIN($A$13-5*A3)+(61/12)*SIN($A$13-4*A3)-13*SIN($A$13-3*A3)+(107/6)*SIN($A$13-2*A3)-(77/6)*SIN($A$13-A3)+(15/4)*SIN($A$13))/(A3^2)</f>
         <v>-0.2955192808300921</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
+      <c r="S36" s="4">
+        <f t="shared" si="8"/>
         <v>9.2583124744471945E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <f>(-SIN($A$13-A4)+SIN($A$13))/(A4)</f>
-        <v>0.95679815565040127</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4616665247952909E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <f>((1/4)*SIN($A$13-4*A4)-(4/3)*SIN($A$13-3*A4)+3*SIN($A$13-2*A4)-4*SIN($A$13-A4)+(25/12)*SIN($A$13))/A4</f>
-        <v>0.95533648720537157</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>1.9202344159197082E-9</v>
-      </c>
-      <c r="F10" s="1">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K37" s="1">
+        <f>1*10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="L37" s="4">
         <f>(SIN($A$13-2*A4)-2*SIN($A$13-A4)+SIN($A$13))/(A4^2)</f>
         <v>-0.28594984217811259</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
+      <c r="M37" s="4">
+        <f t="shared" si="7"/>
         <v>9.5703644832269563E-3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="N37" s="4">
+        <f>(2*SIN($A$13)-5*SIN($A$13-A4)+4*SIN($A$13-2*A4)-SIN($A$13-3*A4))/(A4)^2</f>
+        <v>-0.2955463387499524</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="9"/>
+        <v>2.6132088612851323E-5</v>
+      </c>
+      <c r="P37" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A4)+(19/2)*SIN($A$13-2*A4)-(14/3)*SIN($A$13-3*A4)+(11/12)*SIN($A$13-4*A4))/(A4^2)</f>
+        <v>-0.29552100657109781</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="10"/>
+        <v>7.9990975826449429E-7</v>
+      </c>
+      <c r="R37" s="4">
         <f>((-5/6)*SIN($A$13-5*A4)+(61/12)*SIN($A$13-4*A4)-13*SIN($A$13-3*A4)+(107/6)*SIN($A$13-2*A4)-(77/6)*SIN($A$13-A4)+(15/4)*SIN($A$13))/(A4^2)</f>
         <v>-0.29552020456957706</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
+      <c r="S37" s="4">
+        <f t="shared" si="8"/>
         <v>2.0917624854455141E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <f>(-SIN($A$13-A5)+SIN($A$13))/(A5)</f>
-        <v>0.95607130753936342</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>7.3481841375744317E-4</v>
-      </c>
-      <c r="D11" s="1">
-        <f>((1/4)*SIN($A$13-4*A5)-(4/3)*SIN($A$13-3*A5)+3*SIN($A$13-2*A5)-4*SIN($A$13-A5)+(25/12)*SIN($A$13))/A5</f>
-        <v>0.95533648900592016</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>1.196858168128756E-10</v>
-      </c>
-      <c r="F11" s="1">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K38" s="1">
+        <f>5*10^-3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L38" s="4">
         <f>(SIN($A$13-2*A5)-2*SIN($A$13-A5)+SIN($A$13))/(A5^2)</f>
         <v>-0.2907392444151391</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
+      <c r="M38" s="4">
+        <f t="shared" si="7"/>
         <v>4.7809622462004486E-3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="N38" s="4">
+        <f>(2*SIN($A$13)-5*SIN($A$13-A5)+4*SIN($A$13-2*A5)-SIN($A$13-3*A5))/(A5)^2</f>
+        <v>-0.29552685945510859</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="9"/>
+        <v>6.6527937690463723E-6</v>
+      </c>
+      <c r="P38" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A5)+(19/2)*SIN($A$13-2*A5)-(14/3)*SIN($A$13-3*A5)+(11/12)*SIN($A$13-4*A5))/(A5^2)</f>
+        <v>-0.29552030640589422</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="10"/>
+        <v>9.9744554671321595E-8</v>
+      </c>
+      <c r="R38" s="4">
         <f>((-5/6)*SIN($A$13-5*A5)+(61/12)*SIN($A$13-4*A5)-13*SIN($A$13-3*A5)+(107/6)*SIN($A$13-2*A5)-(77/6)*SIN($A$13-A5)+(15/4)*SIN($A$13))/(A5^2)</f>
         <v>-0.29552020652801048</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
+      <c r="S38" s="4">
+        <f t="shared" si="8"/>
         <v>1.3332907000673799E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <f>(-SIN($A$13-A6)+SIN($A$13))/(A6)</f>
-        <v>0.95548408999385215</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4760086824616714E-4</v>
-      </c>
-      <c r="D12" s="1">
-        <f>((1/4)*SIN($A$13-4*A6)-(4/3)*SIN($A$13-3*A6)+3*SIN($A$13-2*A6)-4*SIN($A$13-A6)+(25/12)*SIN($A$13))/A6</f>
-        <v>0.95533648912526914</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>3.3684166567127249E-13</v>
-      </c>
-      <c r="F12" s="1">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K39" s="1">
+        <f>1*10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L39" s="4">
         <f>(SIN($A$13-2*A6)-2*SIN($A$13-A6)+SIN($A$13))/(A6^2)</f>
         <v>-0.29456469807787045</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
+      <c r="M39" s="4">
+        <f t="shared" si="7"/>
         <v>9.5550858346910017E-4</v>
       </c>
-      <c r="H12" s="1">
+      <c r="N39" s="4">
+        <f>(2*SIN($A$13)-5*SIN($A$13-A6)+4*SIN($A$13-2*A6)-SIN($A$13-3*A6))/(A6)^2</f>
+        <v>-0.29552047675629467</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="9"/>
+        <v>2.7009495512375636E-7</v>
+      </c>
+      <c r="P39" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A6)+(19/2)*SIN($A$13-2*A6)-(14/3)*SIN($A$13-3*A6)+(11/12)*SIN($A$13-4*A6))/(A6^2)</f>
+        <v>-0.2955202076382335</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="10"/>
+        <v>9.7689395461841855E-10</v>
+      </c>
+      <c r="R39" s="4">
         <f>((-5/6)*SIN($A$13-5*A6)+(61/12)*SIN($A$13-4*A6)-13*SIN($A$13-3*A6)+(107/6)*SIN($A$13-2*A6)-(77/6)*SIN($A$13-A6)+(15/4)*SIN($A$13))/(A6^2)</f>
         <v>-0.2955202074161889</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
+      <c r="S39" s="5">
+        <f t="shared" si="8"/>
         <v>7.5484934969338724E-10</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0.3</v>
-      </c>
-      <c r="B13" s="1">
-        <f>(-SIN($A$13-A7)+SIN($A$13))/(A7)</f>
-        <v>0.95541032936996562</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>7.3840244359635321E-5</v>
-      </c>
-      <c r="D13" s="1">
-        <f>((1/4)*SIN($A$13-4*A7)-(4/3)*SIN($A$13-3*A7)+3*SIN($A$13-2*A7)-4*SIN($A$13-A7)+(25/12)*SIN($A$13))/A7</f>
-        <v>0.95533648912549118</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>1.1479706074624119E-13</v>
-      </c>
-      <c r="F13" s="1">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K40" s="1">
+        <f>5*10^-4</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L40" s="4">
         <f>(SIN($A$13-2*A7)-2*SIN($A$13-A7)+SIN($A$13))/(A7^2)</f>
         <v>-0.29504249554612727</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
+      <c r="M40" s="4">
+        <f t="shared" si="7"/>
         <v>4.7771111521227594E-4</v>
       </c>
-      <c r="H13" s="1">
+      <c r="N40" s="4">
+        <f>(2*SIN($A$13)-5*SIN($A$13-A7)+4*SIN($A$13-2*A7)-SIN($A$13-3*A7))/(A7)^2</f>
+        <v>-0.29552027425161498</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="9"/>
+        <v>6.7590275432127811E-8</v>
+      </c>
+      <c r="P40" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A7)+(19/2)*SIN($A$13-2*A7)-(14/3)*SIN($A$13-3*A7)+(11/12)*SIN($A$13-4*A7))/(A7^2)</f>
+        <v>-0.29552020808232271</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4209831644684812E-9</v>
+      </c>
+      <c r="R40" s="4">
         <f>((-5/6)*SIN($A$13-5*A7)+(61/12)*SIN($A$13-4*A7)-13*SIN($A$13-3*A7)+(107/6)*SIN($A$13-2*A7)-(77/6)*SIN($A$13-A7)+(15/4)*SIN($A$13))/(A7^2)</f>
         <v>-0.29552020919254574</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
+      <c r="S40" s="5">
+        <f t="shared" si="8"/>
         <v>2.5312061890936377E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <f>(-SIN($A$13-A8)+SIN($A$13))/(A8)</f>
-        <v>0.95535126354351352</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4774417907537085E-5</v>
-      </c>
-      <c r="D14" s="1">
-        <f>((1/4)*SIN($A$13-4*A8)-(4/3)*SIN($A$13-3*A8)+3*SIN($A$13-2*A8)-4*SIN($A$13-A8)+(25/12)*SIN($A$13))/A8</f>
-        <v>0.95533648912571323</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>1.0724754417879012E-13</v>
-      </c>
-      <c r="F14" s="1">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K41" s="1">
+        <f>1*10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L41" s="4">
         <f>(SIN($A$13-2*A8)-2*SIN($A$13-A8)+SIN($A$13))/(A8^2)</f>
         <v>-0.29542467361309832</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
+      <c r="M41" s="4">
+        <f t="shared" si="7"/>
         <v>9.5533048241225327E-5</v>
       </c>
-      <c r="H14" s="1">
+      <c r="N41" s="4">
+        <f>(2*SIN($A$13)-5*SIN($A$13-A8)+4*SIN($A$13-2*A8)-SIN($A$13-3*A8))/(A8)^2</f>
+        <v>-0.29552020275325219</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="9"/>
+        <v>3.9080873537322702E-9</v>
+      </c>
+      <c r="P41" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A8)+(19/2)*SIN($A$13-2*A8)-(14/3)*SIN($A$13-3*A8)+(11/12)*SIN($A$13-4*A8))/(A8^2)</f>
+        <v>-0.29552021385548244</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="10"/>
+        <v>7.1941428925192952E-9</v>
+      </c>
+      <c r="R41" s="4">
         <f>((-5/6)*SIN($A$13-5*A8)+(61/12)*SIN($A$13-4*A8)-13*SIN($A$13-3*A8)+(107/6)*SIN($A$13-2*A8)-(77/6)*SIN($A$13-A8)+(15/4)*SIN($A$13))/(A8^2)</f>
         <v>-0.29552027491774879</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
+      <c r="S41" s="5">
+        <f t="shared" si="8"/>
         <v>6.8256409246902905E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <f>(-SIN($A$13-A9)+SIN($A$13))/(A9)</f>
-        <v>0.95534387673179566</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>7.3876061896793743E-6</v>
-      </c>
-      <c r="D15" s="1">
-        <f>((1/4)*SIN($A$13-4*A9)-(4/3)*SIN($A$13-3*A9)+3*SIN($A$13-2*A9)-4*SIN($A$13-A9)+(25/12)*SIN($A$13))/A9</f>
-        <v>0.95533648912349278</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>2.113198505071523E-12</v>
-      </c>
-      <c r="F15" s="1">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K42" s="1">
+        <f>5*10^-5</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L42" s="4">
         <f>(SIN($A$13-2*A9)-2*SIN($A$13-A9)+SIN($A$13))/(A9^2)</f>
         <v>-0.29547246871430843</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
+      <c r="M42" s="4">
+        <f t="shared" si="7"/>
         <v>4.7737947031112338E-5</v>
       </c>
-      <c r="H15" s="1">
+      <c r="N42" s="4">
+        <f>(2*SIN($A$13)-5*SIN($A$13-A9)+4*SIN($A$13-2*A9)-SIN($A$13-3*A9))/(A9)^2</f>
+        <v>-0.29552029712220929</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="9"/>
+        <v>9.0460869739406036E-8</v>
+      </c>
+      <c r="P42" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A9)+(19/2)*SIN($A$13-2*A9)-(14/3)*SIN($A$13-3*A9)+(11/12)*SIN($A$13-4*A9))/(A9^2)</f>
+        <v>-0.29552031932666978</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1266533023190917E-7</v>
+      </c>
+      <c r="R42" s="4">
         <f>((-5/6)*SIN($A$13-5*A9)+(61/12)*SIN($A$13-4*A9)-13*SIN($A$13-3*A9)+(107/6)*SIN($A$13-2*A9)-(77/6)*SIN($A$13-A9)+(15/4)*SIN($A$13))/(A9^2)</f>
         <v>-0.29552076341587963</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
+      <c r="S42" s="5">
+        <f t="shared" si="8"/>
         <v>5.5675454008197178E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <f>((1/2)*SIN($A$13 -2*A2)-2*SIN($A$13 -A2)+(3/2)*SIN($A$13 ))/A2</f>
-        <v>0.95858356725300964</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18:C25" si="4">ABS($B$2-B18)</f>
-        <v>3.2470781274036575E-3</v>
-      </c>
-      <c r="D18" s="1">
-        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A2)+(3/2)*SIN($A$13-2*A2)-(1/3)*SIN($A$13-3*A2))/A2</f>
-        <v>0.95529178130847836</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E25" si="5">ABS($B$2-D18)</f>
-        <v>4.4707817127620508E-5</v>
-      </c>
-      <c r="F18" s="1">
-        <f>(2*SIN($A$13)-5*SIN($A$13-A2)+4*SIN($A$13-2*A2)-SIN($A$13-3*A2))/(A2)^2</f>
-        <v>-0.29725740653143146</v>
-      </c>
-      <c r="G18">
-        <f>ABS($C$2-F18)</f>
-        <v>1.73719987009191E-3</v>
-      </c>
-      <c r="H18" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A2)+(19/2)*SIN($A$13-2*A2)-(14/3)*SIN($A$13-3*A2)+(11/12)*SIN($A$13-4*A2))/(A2^2)</f>
-        <v>-0.29634379096815927</v>
-      </c>
-      <c r="I18">
-        <f>ABS($C$2-H18)</f>
-        <v>8.2358430681972461E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <f>((1/2)*SIN($A$13 -2*A3)-2*SIN($A$13 -A3)+(3/2)*SIN($A$13 ))/A3</f>
-        <v>0.95614113760988051</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>8.0464848427452829E-4</v>
-      </c>
-      <c r="D19" s="1">
-        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A3)+(3/2)*SIN($A$13-2*A3)-(1/3)*SIN($A$13-3*A3))/A3</f>
-        <v>0.95532906300558162</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
-        <v>7.4261200243563863E-6</v>
-      </c>
-      <c r="F19" s="1">
-        <f>(2*SIN($A$13)-5*SIN($A$13-A3)+4*SIN($A$13-2*A3)-SIN($A$13-3*A3))/(A3)^2</f>
-        <v>-0.29607689731597769</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ref="G19:G25" si="6">ABS($C$2-F19)</f>
-        <v>5.5669065463814782E-4</v>
-      </c>
-      <c r="H19" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A3)+(19/2)*SIN($A$13-2*A3)-(14/3)*SIN($A$13-3*A3)+(11/12)*SIN($A$13-4*A3))/(A3^2)</f>
-        <v>-0.29562180309902758</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I25" si="7">ABS($C$2-H19)</f>
-        <v>1.0159643768803406E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <f>((1/2)*SIN($A$13 -2*A4)-2*SIN($A$13 -A4)+(3/2)*SIN($A$13 ))/A4</f>
-        <v>0.95536840643950516</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
-        <v>3.1917313899176847E-5</v>
-      </c>
-      <c r="D20" s="1">
-        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A4)+(3/2)*SIN($A$13-2*A4)-(1/3)*SIN($A$13-3*A4))/A4</f>
-        <v>0.95533641811761105</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>7.1007994928429241E-8</v>
-      </c>
-      <c r="F20" s="1">
-        <f>(2*SIN($A$13)-5*SIN($A$13-A4)+4*SIN($A$13-2*A4)-SIN($A$13-3*A4))/(A4)^2</f>
-        <v>-0.2955463387499524</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
-        <v>2.6132088612851323E-5</v>
-      </c>
-      <c r="H20" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A4)+(19/2)*SIN($A$13-2*A4)-(14/3)*SIN($A$13-3*A4)+(11/12)*SIN($A$13-4*A4))/(A4^2)</f>
-        <v>-0.29552100657109781</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="7"/>
-        <v>7.9990975826449429E-7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <f>((1/2)*SIN($A$13 -2*A5)-2*SIN($A$13 -A5)+(3/2)*SIN($A$13 ))/A5</f>
-        <v>0.95534445942832003</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="4"/>
-        <v>7.9703027140443083E-6</v>
-      </c>
-      <c r="D21" s="1">
-        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A5)+(3/2)*SIN($A$13-2*A5)-(1/3)*SIN($A$13-3*A5))/A5</f>
-        <v>0.9553364800699099</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>9.0556960818943821E-9</v>
-      </c>
-      <c r="F21" s="1">
-        <f>(2*SIN($A$13)-5*SIN($A$13-A5)+4*SIN($A$13-2*A5)-SIN($A$13-3*A5))/(A5)^2</f>
-        <v>-0.29552685945510859</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
-        <v>6.6527937690463723E-6</v>
-      </c>
-      <c r="H21" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A5)+(19/2)*SIN($A$13-2*A5)-(14/3)*SIN($A$13-3*A5)+(11/12)*SIN($A$13-4*A5))/(A5^2)</f>
-        <v>-0.29552030640589422</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="7"/>
-        <v>9.9744554671321595E-8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <f>((1/2)*SIN($A$13 -2*A6)-2*SIN($A$13 -A6)+(3/2)*SIN($A$13 ))/A6</f>
-        <v>0.95533680764481321</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="4"/>
-        <v>3.185192072319154E-7</v>
-      </c>
-      <c r="D22" s="1">
-        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A6)+(3/2)*SIN($A$13-2*A6)-(1/3)*SIN($A$13-3*A6))/A6</f>
-        <v>0.9553364890518834</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="5"/>
-        <v>7.372258359339412E-11</v>
-      </c>
-      <c r="F22" s="1">
-        <f>(2*SIN($A$13)-5*SIN($A$13-A6)+4*SIN($A$13-2*A6)-SIN($A$13-3*A6))/(A6)^2</f>
-        <v>-0.29552047675629467</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
-        <v>2.7009495512375636E-7</v>
-      </c>
-      <c r="H22" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A6)+(19/2)*SIN($A$13-2*A6)-(14/3)*SIN($A$13-3*A6)+(11/12)*SIN($A$13-4*A6))/(A6^2)</f>
-        <v>-0.2955202076382335</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="7"/>
-        <v>9.7689395461841855E-10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <f>((1/2)*SIN($A$13 -2*A7)-2*SIN($A$13 -A7)+(3/2)*SIN($A$13 ))/A7</f>
-        <v>0.95533656874602357</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="4"/>
-        <v>7.9620417592352055E-8</v>
-      </c>
-      <c r="D23" s="1">
-        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A7)+(3/2)*SIN($A$13-2*A7)-(1/3)*SIN($A$13-3*A7))/A7</f>
-        <v>0.95533648911622082</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="5"/>
-        <v>9.3851593163662983E-12</v>
-      </c>
-      <c r="F23" s="1">
-        <f>(2*SIN($A$13)-5*SIN($A$13-A7)+4*SIN($A$13-2*A7)-SIN($A$13-3*A7))/(A7)^2</f>
-        <v>-0.29552027425161498</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
-        <v>6.7590275432127811E-8</v>
-      </c>
-      <c r="H23" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A7)+(19/2)*SIN($A$13-2*A7)-(14/3)*SIN($A$13-3*A7)+(11/12)*SIN($A$13-4*A7))/(A7^2)</f>
-        <v>-0.29552020808232271</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="7"/>
-        <v>1.4209831644684812E-9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <f>((1/2)*SIN($A$13 -2*A8)-2*SIN($A$13 -A8)+(3/2)*SIN($A$13 ))/A8</f>
-        <v>0.95533649230983286</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="4"/>
-        <v>3.1842268821691277E-9</v>
-      </c>
-      <c r="D24" s="1">
-        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A8)+(3/2)*SIN($A$13-2*A8)-(1/3)*SIN($A$13-3*A8))/A8</f>
-        <v>0.95533648912488056</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="5"/>
-        <v>7.2541972429007728E-13</v>
-      </c>
-      <c r="F24" s="1">
-        <f>(2*SIN($A$13)-5*SIN($A$13-A8)+4*SIN($A$13-2*A8)-SIN($A$13-3*A8))/(A8)^2</f>
-        <v>-0.29552020275325219</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
-        <v>3.9080873537322702E-9</v>
-      </c>
-      <c r="H24" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A8)+(19/2)*SIN($A$13-2*A8)-(14/3)*SIN($A$13-3*A8)+(11/12)*SIN($A$13-4*A8))/(A8^2)</f>
-        <v>-0.29552021385548244</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="7"/>
-        <v>7.1941428925192952E-9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <f>((1/2)*SIN($A$13 -2*A9)-2*SIN($A$13 -A9)+(3/2)*SIN($A$13 ))/A9</f>
-        <v>0.95533648991952269</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="4"/>
-        <v>7.9391671015116572E-10</v>
-      </c>
-      <c r="D25" s="1">
-        <f>((11/6)*SIN($A$13)-3*SIN($A$13-A9)+(3/2)*SIN($A$13-2*A9)-(1/3)*SIN($A$13-3*A9))/A9</f>
-        <v>0.95533648912432545</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="5"/>
-        <v>1.2805312366026556E-12</v>
-      </c>
-      <c r="F25" s="1">
-        <f>(2*SIN($A$13)-5*SIN($A$13-A9)+4*SIN($A$13-2*A9)-SIN($A$13-3*A9))/(A9)^2</f>
-        <v>-0.29552029712220929</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="6"/>
-        <v>9.0460869739406036E-8</v>
-      </c>
-      <c r="H25" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13-A9)+(19/2)*SIN($A$13-2*A9)-(14/3)*SIN($A$13-3*A9)+(11/12)*SIN($A$13-4*A9))/(A9^2)</f>
-        <v>-0.29552031932666978</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="7"/>
-        <v>1.1266533023190917E-7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="AK26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <f>(0.5*SIN($A$13+A2)-0.5*SIN($A$13-A2))/(A2)</f>
-        <v>0.95374505756794659</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" ref="C29:C36" si="8">ABS($B$2-B29)</f>
-        <v>1.5914315576593951E-3</v>
-      </c>
-      <c r="D29" s="1">
-        <f>(0.75*SIN($A$13+A2)-(3/20)*SIN($A$13+2*A2)+(1/60)*SIN($A$13+3*A2)-0.75*SIN($A$13-A2)+(3/20)*SIN($A$13-2*A2)-(1/60)*SIN($A$13-3*A2))/(A2)</f>
-        <v>0.95533648231503021</v>
-      </c>
-      <c r="E29" s="1">
-        <f>$B$2-D29</f>
-        <v>6.8105757700109848E-9</v>
-      </c>
-      <c r="F29" s="1">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K46" s="1">
+        <f>1*10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L46" s="4">
         <f>(SIN($A$13-A2)-2*SIN($A$13)+SIN($A$13+A2))/(A2^2)</f>
         <v>-0.29527402189673529</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" ref="G29:G36" si="9">$C$2-F29</f>
+      <c r="M46" s="4">
+        <f t="shared" ref="M46:M53" si="11">$C$2-L46</f>
         <v>-2.4618476460425143E-4</v>
       </c>
-      <c r="H29" s="1">
+      <c r="N46" s="1">
+        <f>((-1/12)*SIN($A$13-2*A2)-(1/12)*SIN($A$13+2*A2)+(4/3)*SIN($A$13-A2)+(4/3)*SIN($A$13+A2)-(5/2)*SIN($A$13))/(A2^2)</f>
+        <v>-0.29551987859859347</v>
+      </c>
+      <c r="O46" s="1">
+        <f>$C$2-N46</f>
+        <v>-3.2806274607999342E-7</v>
+      </c>
+      <c r="P46" s="4">
         <f>((1/90)*SIN($A$13-3*A2)-(3/20)*SIN($A$13-2*A2)+1.5*SIN($A$13-A2)-(49/18)*SIN($A$13)+1.5*SIN($A$13+A2)-(3/20)*SIN($A$13+2*A2)+(1/90)*SIN($A$13+3*A2))/(A2^2)</f>
         <v>-0.29552020613444868</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" ref="I29:I36" si="10">$C$2-H29</f>
+      <c r="Q46" s="4">
+        <f t="shared" ref="Q46:Q53" si="12">$C$2-P46</f>
         <v>-5.2689086427193388E-10</v>
       </c>
     </row>
-    <row r="30" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <f>(0.5*SIN($A$13+A3)-0.5*SIN($A$13-A3))/(A3)</f>
-        <v>0.954938482009284</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="8"/>
-        <v>3.980071163219856E-4</v>
-      </c>
-      <c r="D30" s="1">
-        <f>(0.75*SIN($A$13+A3)-(3/20)*SIN($A$13+2*A3)+(1/60)*SIN($A$13+3*A3)-0.75*SIN($A$13-A3)+(3/20)*SIN($A$13-2*A3)-(1/60)*SIN($A$13-3*A3))/(A3)</f>
-        <v>0.9553364890190349</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" ref="E30:E36" si="11">$B$2-D30</f>
-        <v>1.0657108528988601E-10</v>
-      </c>
-      <c r="F30" s="1">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="K47" s="1">
+        <f>5*10^-2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L47" s="4">
         <f>(SIN($A$13-A3)-2*SIN($A$13)+SIN($A$13+A3))/(A3^2)</f>
         <v>-0.29545864508191405</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="9"/>
+      <c r="M47" s="4">
+        <f t="shared" si="11"/>
         <v>-6.1561579425495339E-5</v>
       </c>
-      <c r="H30" s="1">
+      <c r="N47" s="1">
+        <f>((-1/12)*SIN($A$13-2*A3)-(1/12)*SIN($A$13+2*A3)+(4/3)*SIN($A$13-A3)+(4/3)*SIN($A$13+A3)-(5/2)*SIN($A$13))/(A3^2)</f>
+        <v>-0.29552018614369396</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" ref="O47:O53" si="13">$C$2-N47</f>
+        <v>-2.0517645582529553E-8</v>
+      </c>
+      <c r="P47" s="4">
         <f>((1/90)*SIN($A$13-3*A3)-(3/20)*SIN($A$13-2*A3)+1.5*SIN($A$13-A3)-(49/18)*SIN($A$13)+1.5*SIN($A$13+A3)-(3/20)*SIN($A$13+2*A3)+(1/90)*SIN($A$13+3*A3))/(A3^2)</f>
         <v>-0.29552020665309958</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q47" s="4">
+        <f t="shared" si="12"/>
         <v>-8.2399642664654493E-12</v>
       </c>
     </row>
-    <row r="31" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <f>(0.5*SIN($A$13+A4)-0.5*SIN($A$13-A4))/(A4)</f>
-        <v>0.95532056693039824</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5922195207740408E-5</v>
-      </c>
-      <c r="D31" s="1">
-        <f>(0.75*SIN($A$13+A4)-(3/20)*SIN($A$13+2*A4)+(1/60)*SIN($A$13+3*A4)-0.75*SIN($A$13-A4)+(3/20)*SIN($A$13-2*A4)-(1/60)*SIN($A$13-3*A4))/(A4)</f>
-        <v>0.95533648912559599</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="11"/>
-        <v>9.9920072216264089E-15</v>
-      </c>
-      <c r="F31" s="1">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="K48" s="1">
+        <f>1*10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="L48" s="4">
         <f>(SIN($A$13-A4)-2*SIN($A$13)+SIN($A$13+A4))/(A4^2)</f>
         <v>-0.29551774400060626</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" si="9"/>
+      <c r="M48" s="4">
+        <f t="shared" si="11"/>
         <v>-2.4626607332822736E-6</v>
       </c>
-      <c r="H31" s="1">
+      <c r="N48" s="1">
+        <f>((-1/12)*SIN($A$13-2*A4)-(1/12)*SIN($A$13+2*A4)+(4/3)*SIN($A$13-A4)+(4/3)*SIN($A$13+A4)-(5/2)*SIN($A$13))/(A4^2)</f>
+        <v>-0.29552020662793055</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.3408997790473904E-11</v>
+      </c>
+      <c r="P48" s="4">
         <f>((1/90)*SIN($A$13-3*A4)-(3/20)*SIN($A$13-2*A4)+1.5*SIN($A$13-A4)-(49/18)*SIN($A$13)+1.5*SIN($A$13+A4)-(3/20)*SIN($A$13+2*A4)+(1/90)*SIN($A$13+3*A4))/(A4^2)</f>
         <v>-0.29552020666095535</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q48" s="4">
+        <f t="shared" si="12"/>
         <v>-3.8419267767153542E-13</v>
       </c>
     </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <f>(0.5*SIN($A$13+A5)-0.5*SIN($A$13-A5))/(A5)</f>
-        <v>0.95533250856187912</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="8"/>
-        <v>3.9805637268575111E-6</v>
-      </c>
-      <c r="D32" s="1">
-        <f>(0.75*SIN($A$13+A5)-(3/20)*SIN($A$13+2*A5)+(1/60)*SIN($A$13+3*A5)-0.75*SIN($A$13-A5)+(3/20)*SIN($A$13-2*A5)-(1/60)*SIN($A$13-3*A5))/(A5)</f>
-        <v>0.9553364891256122</v>
-      </c>
-      <c r="E32" s="1">
-        <f>$B$2-D32</f>
-        <v>-6.2172489379008766E-15</v>
-      </c>
-      <c r="F32" s="1">
+    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K49" s="1">
+        <f>5*10^-3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L49" s="4">
         <f>(SIN($A$13-A5)-2*SIN($A$13)+SIN($A$13+A5))/(A5^2)</f>
         <v>-0.29551959099372027</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="9"/>
+      <c r="M49" s="4">
+        <f t="shared" si="11"/>
         <v>-6.1566761927478453E-7</v>
       </c>
-      <c r="H32" s="1">
+      <c r="N49" s="1">
+        <f>((-1/12)*SIN($A$13-2*A5)-(1/12)*SIN($A$13+2*A5)+(4/3)*SIN($A$13-A5)+(4/3)*SIN($A$13+A5)-(5/2)*SIN($A$13))/(A5^2)</f>
+        <v>-0.29552020666123724</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.0230705171920818E-13</v>
+      </c>
+      <c r="P49" s="4">
         <f>((1/90)*SIN($A$13-3*A5)-(3/20)*SIN($A$13-2*A5)+1.5*SIN($A$13-A5)-(49/18)*SIN($A$13)+1.5*SIN($A$13+A5)-(3/20)*SIN($A$13+2*A5)+(1/90)*SIN($A$13+3*A5))/(A5^2)</f>
         <v>-0.29552020665964129</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q49" s="5">
+        <f t="shared" si="12"/>
         <v>-1.6982526496178707E-12</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <f>(0.5*SIN($A$13+A6)-0.5*SIN($A$13-A6))/(A6)</f>
-        <v>0.95533632990285611</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5922274987367757E-7</v>
-      </c>
-      <c r="D33" s="1">
-        <f>(0.75*SIN($A$13+A6)-(3/20)*SIN($A$13+2*A6)+(1/60)*SIN($A$13+3*A6)-0.75*SIN($A$13-A6)+(3/20)*SIN($A$13-2*A6)-(1/60)*SIN($A$13-3*A6))/(A6)</f>
-        <v>0.95533648912557445</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="11"/>
-        <v>3.1530333899354446E-14</v>
-      </c>
-      <c r="F33" s="1">
+    <row r="50" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1">
+        <f>1*10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L50" s="4">
         <f>(SIN($A$13-A6)-2*SIN($A$13)+SIN($A$13+A6))/(A6^2)</f>
         <v>-0.29552018199208163</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="9"/>
+      <c r="M50" s="4">
+        <f t="shared" si="11"/>
         <v>-2.4669257914222698E-8</v>
       </c>
-      <c r="H33" s="1">
+      <c r="N50" s="1">
+        <f>((-1/12)*SIN($A$13-2*A6)-(1/12)*SIN($A$13+2*A6)+(4/3)*SIN($A$13-A6)+(4/3)*SIN($A$13+A6)-(5/2)*SIN($A$13))/(A6^2)</f>
+        <v>-0.29552020675005508</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="13"/>
+        <v>8.8715534918293315E-11</v>
+      </c>
+      <c r="P50" s="4">
         <f>((1/90)*SIN($A$13-3*A6)-(3/20)*SIN($A$13-2*A6)+1.5*SIN($A$13-A6)-(49/18)*SIN($A$13)+1.5*SIN($A$13+A6)-(3/20)*SIN($A$13+2*A6)+(1/90)*SIN($A$13+3*A6))/(A6^2)</f>
         <v>-0.29552020661778244</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q50" s="5">
+        <f t="shared" si="12"/>
         <v>-4.355710236936261E-11</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <f>(0.5*SIN($A$13+A7)-0.5*SIN($A$13-A7))/(A7)</f>
-        <v>0.95533644931988793</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="8"/>
-        <v>3.9805718055063721E-8</v>
-      </c>
-      <c r="D34" s="1">
-        <f>(0.75*SIN($A$13+A7)-(3/20)*SIN($A$13+2*A7)+(1/60)*SIN($A$13+3*A7)-0.75*SIN($A$13-A7)+(3/20)*SIN($A$13-2*A7)-(1/60)*SIN($A$13-3*A7))/(A7)</f>
-        <v>0.9553364891255397</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="11"/>
-        <v>6.6280314570121845E-14</v>
-      </c>
-      <c r="F34" s="1">
+    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1">
+        <f>5*10^-4</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L51" s="4">
         <f>(SIN($A$13-A7)-2*SIN($A$13)+SIN($A$13+A7))/(A7^2)</f>
         <v>-0.29552020031076154</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="9"/>
+      <c r="M51" s="4">
+        <f t="shared" si="11"/>
         <v>-6.3505780079076146E-9</v>
       </c>
-      <c r="H34" s="1">
+      <c r="N51" s="1">
+        <f>((-1/12)*SIN($A$13-2*A7)-(1/12)*SIN($A$13+2*A7)+(4/3)*SIN($A$13-A7)+(4/3)*SIN($A$13+A7)-(5/2)*SIN($A$13))/(A7^2)</f>
+        <v>-0.29552020652801048</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="13"/>
+        <v>-1.3332907000673799E-10</v>
+      </c>
+      <c r="P51" s="4">
         <f>((1/90)*SIN($A$13-3*A7)-(3/20)*SIN($A$13-2*A7)+1.5*SIN($A$13-A7)-(49/18)*SIN($A$13)+1.5*SIN($A$13+A7)-(3/20)*SIN($A$13+2*A7)+(1/90)*SIN($A$13+3*A7))/(A7^2)</f>
         <v>-0.29552020644300903</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q51" s="5">
+        <f t="shared" si="12"/>
         <v>-2.1833052032960154E-10</v>
       </c>
-      <c r="Y34" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <f>(0.5*SIN($A$13+A8)-0.5*SIN($A$13-A8))/(A8)</f>
-        <v>0.95533648753337586</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="8"/>
-        <v>1.592230125524452E-9</v>
-      </c>
-      <c r="D35" s="1">
-        <f>(0.75*SIN($A$13+A8)-(3/20)*SIN($A$13+2*A8)+(1/60)*SIN($A$13+3*A8)-0.75*SIN($A$13-A8)+(3/20)*SIN($A$13-2*A8)-(1/60)*SIN($A$13-3*A8))/(A8)</f>
-        <v>0.95533648912576519</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.5920598173124745E-13</v>
-      </c>
-      <c r="F35" s="1">
+    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1">
+        <f>1*10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L52" s="4">
         <f>(SIN($A$13-A8)-2*SIN($A$13)+SIN($A$13+A8))/(A8^2)</f>
         <v>-0.29552020275325219</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" si="9"/>
+      <c r="M52" s="5">
+        <f t="shared" si="11"/>
         <v>-3.9080873537322702E-9</v>
       </c>
-      <c r="H35" s="1">
+      <c r="N52" s="1">
+        <f>((-1/12)*SIN($A$13-2*A8)-(1/12)*SIN($A$13+2*A8)+(4/3)*SIN($A$13-A8)+(4/3)*SIN($A$13+A8)-(5/2)*SIN($A$13))/(A8^2)</f>
+        <v>-0.29552020830436732</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="13"/>
+        <v>1.6430277693935125E-9</v>
+      </c>
+      <c r="P52" s="4">
         <f>((1/90)*SIN($A$13-3*A8)-(3/20)*SIN($A$13-2*A8)+1.5*SIN($A$13-A8)-(49/18)*SIN($A$13)+1.5*SIN($A$13+A8)-(3/20)*SIN($A$13+2*A8)+(1/90)*SIN($A$13+3*A8))/(A8^2)</f>
         <v>-0.29552020058484785</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q52" s="5">
+        <f t="shared" si="12"/>
         <v>-6.0764916987032791E-9</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <f>(0.5*SIN($A$13+A9)-0.5*SIN($A$13-A9))/(A9)</f>
-        <v>0.95533648872714316</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="8"/>
-        <v>3.9846281829625241E-10</v>
-      </c>
-      <c r="D36" s="1">
-        <f>(0.75*SIN($A$13+A9)-(3/20)*SIN($A$13+2*A9)+(1/60)*SIN($A$13+3*A9)-0.75*SIN($A$13-A9)+(3/20)*SIN($A$13-2*A9)-(1/60)*SIN($A$13-3*A9))/(A9)</f>
-        <v>0.95533648912564384</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.7858605139717838E-14</v>
-      </c>
-      <c r="F36" s="1">
+    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1">
+        <f>5*10^-5</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L53" s="4">
         <f>(SIN($A$13-A9)-2*SIN($A$13)+SIN($A$13+A9))/(A9^2)</f>
         <v>-0.29552018609990682</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="9"/>
+      <c r="M53" s="5">
+        <f t="shared" si="11"/>
         <v>-2.0561432723109618E-8</v>
       </c>
-      <c r="H36" s="1">
+      <c r="N53" s="1">
+        <f>((-1/12)*SIN($A$13-2*A9)-(1/12)*SIN($A$13+2*A9)+(4/3)*SIN($A$13-A9)+(4/3)*SIN($A$13+A9)-(5/2)*SIN($A$13))/(A9^2)</f>
+        <v>-0.29552023050882781</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="13"/>
+        <v>2.3847488261896643E-8</v>
+      </c>
+      <c r="P53" s="4">
         <f>((1/90)*SIN($A$13-3*A9)-(3/20)*SIN($A$13-2*A9)+1.5*SIN($A$13-A9)-(49/18)*SIN($A$13)+1.5*SIN($A$13+A9)-(3/20)*SIN($A$13+2*A9)+(1/90)*SIN($A$13+3*A9))/(A9^2)</f>
         <v>-0.2955201984164435</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q53" s="5">
+        <f t="shared" si="12"/>
         <v>-8.244896043674288E-9</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+      <c r="K56" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" t="s">
+        <v>33</v>
+      </c>
+      <c r="N56" t="s">
+        <v>17</v>
+      </c>
+      <c r="O56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" t="s">
+        <v>31</v>
+      </c>
+      <c r="S56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1">
+        <f>1*10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L57" s="4">
+        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A2))/([1]Arkusz1!A2^2)</f>
+        <v>-0.38909393517584928</v>
+      </c>
+      <c r="M57" s="4">
+        <f>ABS(L57-[1]Arkusz1!$C$12)</f>
+        <v>9.3573728514509735E-2</v>
+      </c>
+      <c r="N57" s="4">
+        <f>((2*SIN($A$13)-5*SIN($A$13+A2)+4*SIN($A$13+2*A2)-SIN($A$13+3*A2)))/(A2^2)</f>
+        <v>-0.29916171987969248</v>
+      </c>
+      <c r="O57" s="4">
+        <f>ABS(N57-$C$2)</f>
+        <v>3.641513218352932E-3</v>
+      </c>
+      <c r="P57" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A2)+(19/2)*SIN($A$13+2*A2)-(14/3)*SIN($A$13+3*A2)+(11/12)*SIN($A$13+4*A2))/(A2^2)</f>
+        <v>-0.29477430484182715</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>ABS(P57-$C$2)</f>
+        <v>7.4590181951239565E-4</v>
+      </c>
+      <c r="R57" s="4">
+        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A2) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A2) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A2) +(-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A2))/([1]Arkusz1!A2^2)</f>
+        <v>-0.29548326328389102</v>
+      </c>
+      <c r="S57" s="4">
+        <f>ABS(R57-[1]Arkusz1!$C$12)</f>
+        <v>3.6943377448528381E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K58" s="1">
+        <f>5*10^-2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L58" s="4">
+        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A3))/([1]Arkusz1!A3^2)</f>
+        <v>-0.34282637636504626</v>
+      </c>
+      <c r="M58" s="4">
+        <f>ABS(L58-[1]Arkusz1!$C$12)</f>
+        <v>4.7306169703706713E-2</v>
+      </c>
+      <c r="N58" s="4">
+        <f>((2*SIN($A$13)-5*SIN($A$13+A3)+4*SIN($A$13+2*A3)-SIN($A$13+3*A3)))/(A3^2)</f>
+        <v>-0.29631553248228298</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" ref="O58:O64" si="14">ABS(N58-$C$2)</f>
+        <v>7.9532582094343773E-4</v>
+      </c>
+      <c r="P58" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A3)+(19/2)*SIN($A$13+2*A3)-(14/3)*SIN($A$13+3*A3)+(11/12)*SIN($A$13+4*A3))/(A3^2)</f>
+        <v>-0.29542348721862671</v>
+      </c>
+      <c r="Q58" s="4">
+        <f t="shared" ref="Q58:Q64" si="15">ABS(P58-$C$2)</f>
+        <v>9.6719442712833725E-5</v>
+      </c>
+      <c r="R58" s="4">
+        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A3) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A3) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A3) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A3))/([1]Arkusz1!A3^2)</f>
+        <v>-0.29551833767169627</v>
+      </c>
+      <c r="S58" s="4">
+        <f>ABS(R58-[1]Arkusz1!$C$12)</f>
+        <v>1.8689896432722009E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K59" s="1">
+        <f>1*10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="L59" s="4">
+        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A4))/([1]Arkusz1!A4^2)</f>
+        <v>-0.30505609429687386</v>
+      </c>
+      <c r="M59" s="4">
+        <f>ABS(L59-[1]Arkusz1!$C$12)</f>
+        <v>9.5358876355343125E-3</v>
+      </c>
+      <c r="N59" s="4">
+        <f>((2*SIN($A$13)-5*SIN($A$13+A4)+4*SIN($A$13+2*A4)-SIN($A$13+3*A4)))/(A4^2)</f>
+        <v>-0.29554824935718038</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="14"/>
+        <v>2.8042695840835297E-5</v>
+      </c>
+      <c r="P59" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A4)+(19/2)*SIN($A$13+2*A4)-(14/3)*SIN($A$13+3*A4)+(11/12)*SIN($A$13+4*A4))/(A4^2)</f>
+        <v>-0.29551941456762432</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" si="15"/>
+        <v>7.9209371522948047E-7</v>
+      </c>
+      <c r="R59" s="4">
+        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A4) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A4) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A4) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A4))/([1]Arkusz1!A4^2)</f>
+        <v>-0.29552020426537595</v>
+      </c>
+      <c r="S59" s="4">
+        <f>ABS(R59-[1]Arkusz1!$C$12)</f>
+        <v>2.395963594192807E-9</v>
+      </c>
+    </row>
+    <row r="60" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K60" s="1">
+        <f>5*10^-3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L60" s="4">
+        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A5))/([1]Arkusz1!A5^2)</f>
+        <v>-0.30029254959984542</v>
+      </c>
+      <c r="M60" s="4">
+        <f>ABS(L60-[1]Arkusz1!$C$12)</f>
+        <v>4.7723429385058691E-3</v>
+      </c>
+      <c r="N60" s="4">
+        <f>((2*SIN($A$13)-5*SIN($A$13+A5)+4*SIN($A$13+2*A5)-SIN($A$13+3*A5)))/(A5^2)</f>
+        <v>-0.29552709829294699</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" si="14"/>
+        <v>6.8916316074418837E-6</v>
+      </c>
+      <c r="P60" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A5)+(19/2)*SIN($A$13+2*A5)-(14/3)*SIN($A$13+3*A5)+(11/12)*SIN($A$13+4*A5))/(A5^2)</f>
+        <v>-0.29552010739397616</v>
+      </c>
+      <c r="Q60" s="4">
+        <f t="shared" si="15"/>
+        <v>9.9267363384836216E-8</v>
+      </c>
+      <c r="R60" s="4">
+        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A5) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A5) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A5) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A5))/([1]Arkusz1!A5^2)</f>
+        <v>-0.29552020652801048</v>
+      </c>
+      <c r="S60" s="4">
+        <f>ABS(R60-[1]Arkusz1!$C$12)</f>
+        <v>1.3332907000673799E-10</v>
+      </c>
+    </row>
+    <row r="61" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K61" s="1">
+        <f>1*10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L61" s="4">
+        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A6))/([1]Arkusz1!A6^2)</f>
+        <v>-0.29647537053145712</v>
+      </c>
+      <c r="M61" s="4">
+        <f>ABS(L61-[1]Arkusz1!$C$12)</f>
+        <v>9.551638701175702E-4</v>
+      </c>
+      <c r="N61" s="4">
+        <f>((2*SIN($A$13)-5*SIN($A$13+A6)+4*SIN($A$13+2*A6)-SIN($A$13+3*A6)))/(A6^2)</f>
+        <v>-0.29552047853265151</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="14"/>
+        <v>2.7187131196315661E-7</v>
+      </c>
+      <c r="P61" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A6)+(19/2)*SIN($A$13+2*A6)-(14/3)*SIN($A$13+3*A6)+(11/12)*SIN($A$13+4*A6))/(A6^2)</f>
+        <v>-0.29552020602841012</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="15"/>
+        <v>6.3292943108805844E-10</v>
+      </c>
+      <c r="R61" s="4">
+        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A6) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A6) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A6) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A6))/([1]Arkusz1!A6^2)</f>
+        <v>-0.2955202077492558</v>
+      </c>
+      <c r="S61" s="5">
+        <f>ABS(R61-[1]Arkusz1!$C$12)</f>
+        <v>1.0879162570809342E-9</v>
+      </c>
+    </row>
+    <row r="62" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K62" s="1">
+        <f>5*10^-4</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L62" s="4">
+        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A7))/([1]Arkusz1!A7^2)</f>
+        <v>-0.29599783180067618</v>
+      </c>
+      <c r="M62" s="4">
+        <f>ABS(L62-[1]Arkusz1!$C$12)</f>
+        <v>4.7762513933663486E-4</v>
+      </c>
+      <c r="N62" s="4">
+        <f>((2*SIN($A$13)-5*SIN($A$13+A7)+4*SIN($A$13+2*A7)-SIN($A$13+3*A7)))/(A7^2)</f>
+        <v>-0.29552027447365958</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="shared" si="14"/>
+        <v>6.7812320037052842E-8</v>
+      </c>
+      <c r="P62" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A7)+(19/2)*SIN($A$13+2*A7)-(14/3)*SIN($A$13+3*A7)+(11/12)*SIN($A$13+4*A7))/(A7^2)</f>
+        <v>-0.2955202076382335</v>
+      </c>
+      <c r="Q62" s="5">
+        <f t="shared" si="15"/>
+        <v>9.7689395461841855E-10</v>
+      </c>
+      <c r="R62" s="4">
+        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A7) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A7) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A7) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A7))/([1]Arkusz1!A7^2)</f>
+        <v>-0.2955202074161889</v>
+      </c>
+      <c r="S62" s="5">
+        <f>ABS(R62-[1]Arkusz1!$C$12)</f>
+        <v>7.5484934969338724E-10</v>
+      </c>
+    </row>
+    <row r="63" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K63" s="1">
+        <f>1*10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L63" s="4">
+        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A8))/([1]Arkusz1!A8^2)</f>
+        <v>-0.29561574299563631</v>
+      </c>
+      <c r="M63" s="4">
+        <f>ABS(L63-[1]Arkusz1!$C$12)</f>
+        <v>9.5536334296764114E-5</v>
+      </c>
+      <c r="N63" s="4">
+        <f>((2*SIN($A$13)-5*SIN($A$13+A8)+4*SIN($A$13+2*A8)-SIN($A$13+3*A8)))/(A8^2)</f>
+        <v>-0.29552021940659756</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="14"/>
+        <v>1.2745258015645078E-8</v>
+      </c>
+      <c r="P63" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A8)+(19/2)*SIN($A$13+2*A8)-(14/3)*SIN($A$13+3*A8)+(11/12)*SIN($A$13+4*A8))/(A8^2)</f>
+        <v>-0.29552020830436732</v>
+      </c>
+      <c r="Q63" s="5">
+        <f t="shared" si="15"/>
+        <v>1.6430277693935125E-9</v>
+      </c>
+      <c r="R63" s="4">
+        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A8) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A8) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A8) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A8))/([1]Arkusz1!A8^2)</f>
+        <v>-0.29552029434665172</v>
+      </c>
+      <c r="S63" s="5">
+        <f>ABS(R63-[1]Arkusz1!$C$12)</f>
+        <v>8.7685312177843144E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K64" s="1">
+        <f>5*10^-5</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L64" s="4">
+        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A9))/([1]Arkusz1!A9^2)</f>
+        <v>-0.29556797009888669</v>
+      </c>
+      <c r="M64" s="4">
+        <f>ABS(L64-[1]Arkusz1!$C$12)</f>
+        <v>4.7763437547143628E-5</v>
+      </c>
+      <c r="N64" s="4">
+        <f>((2*SIN($A$13)-5*SIN($A$13+A9)+4*SIN($A$13+2*A9)-SIN($A$13+3*A9)))/(A9^2)</f>
+        <v>-0.29552016389544633</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="14"/>
+        <v>4.2765893215612749E-8</v>
+      </c>
+      <c r="P64" s="4">
+        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A9)+(19/2)*SIN($A$13+2*A9)-(14/3)*SIN($A$13+3*A9)+(11/12)*SIN($A$13+4*A9))/(A9^2)</f>
+        <v>-0.29552029712220929</v>
+      </c>
+      <c r="Q64" s="5">
+        <f t="shared" si="15"/>
+        <v>9.0460869739406036E-8</v>
+      </c>
+      <c r="R64" s="4">
+        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A9) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A9) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A9) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A9))/([1]Arkusz1!A9^2)</f>
+        <v>-0.29552035263336052</v>
+      </c>
+      <c r="S64" s="5">
+        <f>ABS(R64-[1]Arkusz1!$C$12)</f>
+        <v>1.4597202097066386E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
         <v>4</v>
       </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
         <v>4</v>
       </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA38">
-        <v>2</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC38">
+      <c r="P66">
         <v>3</v>
       </c>
-      <c r="AD38" t="s">
-        <v>19</v>
+      <c r="Q66" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <f>((-2/3)*SIN($A$13-A2)+(1/12)*SIN($A$13-2*A2)+(2/3)*SIN($A$13+A2)-(1/12)*SIN($A$13+2*A2))/A2</f>
-        <v>0.95533330845944975</v>
-      </c>
-      <c r="C39">
-        <f>ABS($B$2-B39)</f>
-        <v>3.1806661562328031E-6</v>
-      </c>
-      <c r="F39" s="1">
-        <f>((-1/12)*SIN($A$13-2*A2)-(1/12)*SIN($A$13+2*A2)+(4/3)*SIN($A$13-A2)+(4/3)*SIN($A$13+A2)-(5/2)*SIN($A$13))/(A2^2)</f>
-        <v>-0.29551987859859347</v>
-      </c>
-      <c r="G39" s="1">
-        <f>$C$2-F39</f>
-        <v>-3.2806274607999342E-7</v>
-      </c>
-      <c r="Y39" s="1">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K67" s="1">
+        <f>1*10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L67" s="4">
         <f>(4/(3*A2)*SIN($A$13) + (-3/(2*A2))*SIN($A$13-A2)+(1/(6*A2))*SIN($A$13-3*A2))</f>
         <v>0.960229460225276</v>
       </c>
-      <c r="Z39" s="1">
-        <f>ABS($B$2-Y39)</f>
+      <c r="M67" s="4">
+        <f t="shared" ref="M67:M74" si="16">ABS($B$2-L67)</f>
         <v>4.8929710996700182E-3</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="N67" s="4">
         <f>((1/(6*A2))*SIN($A$13)+(-1/(2*A2))*SIN($A$13-A2)+(1/(2*A2))*SIN($A$13+2*A2)+(-1/(6*A2))*SIN($A$13+3*A2))</f>
         <v>0.9552439278228827</v>
       </c>
-      <c r="AB39">
-        <f>ABS($B$2-AA39)</f>
+      <c r="O67" s="4">
+        <f t="shared" ref="O67:O74" si="17">ABS($B$2-N67)</f>
         <v>9.2561302723281891E-5</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="P67" s="4">
         <f>((-2/(A2^2))*SIN($A$13)+(1/(A2^2))*SIN($A$13-A2)+(1/(A2^2))*SIN($A$13+A2))</f>
         <v>-0.29527402189673779</v>
       </c>
-      <c r="AD39">
-        <f>ABS($C$2-AC39)</f>
+      <c r="Q67" s="4">
+        <f>ABS($C$2-P67)</f>
         <v>2.4618476460175343E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <f>((-2/3)*SIN($A$13-A3)+(1/12)*SIN($A$13-2*A3)+(2/3)*SIN($A$13+A3)-(1/12)*SIN($A$13+2*A3))/A3</f>
-        <v>0.95533629015639632</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:C46" si="12">ABS($B$2-B40)</f>
-        <v>1.9896920966377962E-7</v>
-      </c>
-      <c r="F40" s="1">
-        <f>((-1/12)*SIN($A$13-2*A3)-(1/12)*SIN($A$13+2*A3)+(4/3)*SIN($A$13-A3)+(4/3)*SIN($A$13+A3)-(5/2)*SIN($A$13))/(A3^2)</f>
-        <v>-0.29552018614369396</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" ref="G40:G46" si="13">$C$2-F40</f>
-        <v>-2.0517645582529553E-8</v>
-      </c>
-      <c r="Y40" s="1">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="K68" s="1">
+        <f>5*10^-2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L68" s="4">
         <f>(4/(3*A3)*SIN($A$13) + (-3/(2*A3))*SIN($A$13-A3)+(1/(6*A3))*SIN($A$13-3*A3))</f>
         <v>0.95654717491202967</v>
       </c>
-      <c r="Z40" s="1">
-        <f>ABS($B$2-Y40)</f>
+      <c r="M68" s="4">
+        <f t="shared" si="16"/>
         <v>1.2106857864236931E-3</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="N68" s="4">
         <f>((1/(6*A3))*SIN($A$13)+(-1/(2*A3))*SIN($A$13-A3)+(1/(2*A3))*SIN($A$13+2*A3)+(-1/(6*A3))*SIN($A$13+3*A3))</f>
         <v>0.95532607237497369</v>
       </c>
-      <c r="AB40">
-        <f>ABS($B$2-AA40)</f>
+      <c r="O68" s="4">
+        <f t="shared" si="17"/>
         <v>1.0416750632291638E-5</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="P68" s="4">
         <f>((-2/(A3^2))*SIN($A$13)+(1/(A3^2))*SIN($A$13-A3)+(1/(A3^2))*SIN($A$13+A3))</f>
         <v>-0.29545864508193631</v>
       </c>
-      <c r="AD40">
-        <f t="shared" ref="AD40:AD46" si="14">ABS($C$2-AC40)</f>
+      <c r="Q68" s="4">
+        <f t="shared" ref="Q68:Q74" si="18">ABS($C$2-P68)</f>
         <v>6.1561579403235367E-5</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
-        <f>((-2/3)*SIN($A$13-A4)+(1/12)*SIN($A$13-2*A4)+(2/3)*SIN($A$13+A4)-(1/12)*SIN($A$13+2*A4))/A4</f>
-        <v>0.95533648880716249</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="12"/>
-        <v>3.1844349379639425E-10</v>
-      </c>
-      <c r="F41" s="1">
-        <f>((-1/12)*SIN($A$13-2*A4)-(1/12)*SIN($A$13+2*A4)+(4/3)*SIN($A$13-A4)+(4/3)*SIN($A$13+A4)-(5/2)*SIN($A$13))/(A4^2)</f>
-        <v>-0.29552020662793055</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="13"/>
-        <v>-3.3408997790473904E-11</v>
-      </c>
-      <c r="Y41" s="1">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K69" s="1">
+        <f>1*10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="L69" s="4">
         <f>(4/(3*A4)*SIN($A$13) + (-3/(2*A4))*SIN($A$13-A4)+(1/(6*A4))*SIN($A$13-3*A4))</f>
         <v>0.95538440060046792</v>
       </c>
-      <c r="Z41" s="1">
-        <f>ABS($B$2-Y41)</f>
+      <c r="M69" s="4">
+        <f t="shared" si="16"/>
         <v>4.7911474861939141E-5</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="N69" s="4">
         <f>((1/(6*A4))*SIN($A$13)+(-1/(2*A4))*SIN($A$13-A4)+(1/(2*A4))*SIN($A$13+2*A4)+(-1/(6*A4))*SIN($A$13+3*A4))</f>
         <v>0.95533641333863439</v>
       </c>
-      <c r="AB41">
-        <f>ABS($B$2-AA41)</f>
+      <c r="O69" s="4">
+        <f t="shared" si="17"/>
         <v>7.5786971587277208E-8</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="P69" s="4">
         <f>((-2/(A4^2))*SIN($A$13)+(1/(A4^2))*SIN($A$13-A4)+(1/(A4^2))*SIN($A$13+A4))</f>
         <v>-0.29551774400033537</v>
       </c>
-      <c r="AD41">
-        <f t="shared" si="14"/>
+      <c r="Q69" s="4">
+        <f t="shared" si="18"/>
         <v>2.4626610041766916E-6</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <f>((-2/3)*SIN($A$13-A5)+(1/12)*SIN($A$13-2*A5)+(2/3)*SIN($A$13+A5)-(1/12)*SIN($A$13+2*A5))/A5</f>
-        <v>0.95533648910570634</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="12"/>
-        <v>1.9899637493381306E-11</v>
-      </c>
-      <c r="F42" s="1">
-        <f>((-1/12)*SIN($A$13-2*A5)-(1/12)*SIN($A$13+2*A5)+(4/3)*SIN($A$13-A5)+(4/3)*SIN($A$13+A5)-(5/2)*SIN($A$13))/(A5^2)</f>
-        <v>-0.29552020666123724</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="13"/>
-        <v>-1.0230705171920818E-13</v>
-      </c>
-      <c r="Y42" s="1">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <f>5*10^-3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L70" s="4">
         <f>(4/(3*A5)*SIN($A$13) + (-3/(2*A5))*SIN($A$13-A5)+(1/(6*A5))*SIN($A$13-3*A5))</f>
         <v>0.95534844910754302</v>
       </c>
-      <c r="Z42" s="1">
-        <f>ABS($B$2-Y42)</f>
+      <c r="M70" s="4">
+        <f t="shared" si="16"/>
         <v>1.1959981937037512E-5</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="N70" s="4">
         <f>((1/(6*A5))*SIN($A$13)+(-1/(2*A5))*SIN($A$13-A5)+(1/(2*A5))*SIN($A$13+2*A5)+(-1/(6*A5))*SIN($A$13+3*A5))</f>
         <v>0.95533647977129732</v>
       </c>
-      <c r="AB42">
-        <f>ABS($B$2-AA42)</f>
+      <c r="O70" s="4">
+        <f t="shared" si="17"/>
         <v>9.3543086610026194E-9</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="P70" s="4">
         <f>((-2/(A5^2))*SIN($A$13)+(1/(A5^2))*SIN($A$13-A5)+(1/(A5^2))*SIN($A$13+A5))</f>
         <v>-0.29551959099262604</v>
       </c>
-      <c r="AD42">
-        <f t="shared" si="14"/>
+      <c r="Q70" s="4">
+        <f t="shared" si="18"/>
         <v>6.156687135105976E-7</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
-        <f>((-2/3)*SIN($A$13-A6)+(1/12)*SIN($A$13-2*A6)+(2/3)*SIN($A$13+A6)-(1/12)*SIN($A$13+2*A6))/A6</f>
-        <v>0.9553364891255467</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="12"/>
-        <v>5.9285909514983359E-14</v>
-      </c>
-      <c r="F43" s="1">
-        <f>((-1/12)*SIN($A$13-2*A6)-(1/12)*SIN($A$13+2*A6)+(4/3)*SIN($A$13-A6)+(4/3)*SIN($A$13+A6)-(5/2)*SIN($A$13))/(A6^2)</f>
-        <v>-0.29552020675005508</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="13"/>
-        <v>8.8715534918293315E-11</v>
-      </c>
-      <c r="Y43" s="1">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K71" s="1">
+        <f>1*10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L71" s="4">
         <f>(4/(3*A6)*SIN($A$13) + (-3/(2*A6))*SIN($A$13-A6)+(1/(6*A6))*SIN($A$13-3*A6))</f>
         <v>0.95533696694123194</v>
       </c>
-      <c r="Z43" s="1">
-        <f>ABS($B$2-Y43)</f>
+      <c r="M71" s="4">
+        <f t="shared" si="16"/>
         <v>4.7781562595439198E-7</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="N71" s="4">
         <f>((1/(6*A6))*SIN($A$13)+(-1/(2*A6))*SIN($A$13-A6)+(1/(2*A6))*SIN($A$13+2*A6)+(-1/(6*A6))*SIN($A$13+3*A6))</f>
         <v>0.95533648905153967</v>
       </c>
-      <c r="AB43">
-        <f>ABS($B$2-AA43)</f>
+      <c r="O71" s="4">
+        <f t="shared" si="17"/>
         <v>7.4066308641818068E-11</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="P71" s="4">
         <f>((-2/(A6^2))*SIN($A$13)+(1/(A6^2))*SIN($A$13-A6)+(1/(A6^2))*SIN($A$13+A6))</f>
         <v>-0.29552018200047314</v>
       </c>
-      <c r="AD43">
-        <f t="shared" si="14"/>
+      <c r="Q71" s="4">
+        <f t="shared" si="18"/>
         <v>2.4660866404513371E-8</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
-        <f>((-2/3)*SIN($A$13-A7)+(1/12)*SIN($A$13-2*A7)+(2/3)*SIN($A$13+A7)-(1/12)*SIN($A$13+2*A7))/A7</f>
-        <v>0.95533648912553282</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="12"/>
-        <v>7.3163697322797816E-14</v>
-      </c>
-      <c r="F44" s="1">
-        <f>((-1/12)*SIN($A$13-2*A7)-(1/12)*SIN($A$13+2*A7)+(4/3)*SIN($A$13-A7)+(4/3)*SIN($A$13+A7)-(5/2)*SIN($A$13))/(A7^2)</f>
-        <v>-0.29552020652801048</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="13"/>
-        <v>-1.3332907000673799E-10</v>
-      </c>
-      <c r="Y44" s="1">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K72" s="1">
+        <f>5*10^-4</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L72" s="4">
         <f>(4/(3*A7)*SIN($A$13) + (-3/(2*A7))*SIN($A$13-A7)+(1/(6*A7))*SIN($A$13-3*A7))</f>
         <v>0.95533660856096958</v>
       </c>
-      <c r="Z44" s="1">
-        <f>ABS($B$2-Y44)</f>
+      <c r="M72" s="4">
+        <f t="shared" si="16"/>
         <v>1.1943536359915186E-7</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="N72" s="4">
         <f>((1/(6*A7))*SIN($A$13)+(-1/(2*A7))*SIN($A$13-A7)+(1/(2*A7))*SIN($A$13+2*A7)+(-1/(6*A7))*SIN($A$13+3*A7))</f>
         <v>0.95533648911634828</v>
       </c>
-      <c r="AB44">
-        <f>ABS($B$2-AA44)</f>
+      <c r="O72" s="4">
+        <f t="shared" si="17"/>
         <v>9.2577057131393303E-12</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="P72" s="4">
         <f>((-2/(A7^2))*SIN($A$13)+(1/(A7^2))*SIN($A$13-A7)+(1/(A7^2))*SIN($A$13+A7))</f>
         <v>-0.29552020039409399</v>
       </c>
-      <c r="AD44">
-        <f t="shared" si="14"/>
+      <c r="Q72" s="4">
+        <f t="shared" si="18"/>
         <v>6.2672455558576701E-9</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B45" s="1">
-        <f>((-2/3)*SIN($A$13-A8)+(1/12)*SIN($A$13-2*A8)+(2/3)*SIN($A$13+A8)-(1/12)*SIN($A$13+2*A8))/A8</f>
-        <v>0.95533648912578262</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="12"/>
-        <v>1.7663648321786241E-13</v>
-      </c>
-      <c r="F45" s="1">
-        <f>((-1/12)*SIN($A$13-2*A8)-(1/12)*SIN($A$13+2*A8)+(4/3)*SIN($A$13-A8)+(4/3)*SIN($A$13+A8)-(5/2)*SIN($A$13))/(A8^2)</f>
-        <v>-0.29552020830436732</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="13"/>
-        <v>1.6430277693935125E-9</v>
-      </c>
-      <c r="Y45" s="1">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K73" s="1">
+        <f>1*10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L73" s="4">
         <f>(4/(3*A8)*SIN($A$13) + (-3/(2*A8))*SIN($A$13-A8)+(1/(6*A8))*SIN($A$13-3*A8))</f>
         <v>0.95533649390159781</v>
       </c>
-      <c r="Z45" s="1">
-        <f>ABS($B$2-Y45)</f>
+      <c r="M73" s="4">
+        <f t="shared" si="16"/>
         <v>4.7759918242462618E-9</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="N73" s="4">
         <f>((1/(6*A8))*SIN($A$13)+(-1/(2*A8))*SIN($A$13-A8)+(1/(2*A8))*SIN($A$13+2*A8)+(-1/(6*A8))*SIN($A$13+3*A8))</f>
         <v>0.95533648912550007</v>
       </c>
-      <c r="AB45">
-        <f>ABS($B$2-AA45)</f>
+      <c r="O73" s="4">
+        <f t="shared" si="17"/>
         <v>1.0591527654923993E-13</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="P73" s="4">
         <f>((-2/(A8^2))*SIN($A$13)+(1/(A8^2))*SIN($A$13-A8)+(1/(A8^2))*SIN($A$13+A8))</f>
         <v>-0.29552020505070686</v>
       </c>
-      <c r="AD45">
-        <f t="shared" si="14"/>
+      <c r="Q73" s="5">
+        <f t="shared" si="18"/>
         <v>1.6106326827802775E-9</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
-        <f>((-2/3)*SIN($A$13-A9)+(1/12)*SIN($A$13-2*A9)+(2/3)*SIN($A$13+A9)-(1/12)*SIN($A$13+2*A9))/A9</f>
-        <v>0.95533648912488056</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="12"/>
-        <v>7.2541972429007728E-13</v>
-      </c>
-      <c r="F46" s="1">
-        <f>((-1/12)*SIN($A$13-2*A9)-(1/12)*SIN($A$13+2*A9)+(4/3)*SIN($A$13-A9)+(4/3)*SIN($A$13+A9)-(5/2)*SIN($A$13))/(A9^2)</f>
-        <v>-0.29552023050882781</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="13"/>
-        <v>2.3847488261896643E-8</v>
-      </c>
-      <c r="Y46" s="1">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K74" s="1">
+        <f>5*10^-5</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L74" s="4">
         <f>(4/(3*A9)*SIN($A$13) + (-3/(2*A9))*SIN($A$13-A9)+(1/(6*A9))*SIN($A$13-3*A9))</f>
         <v>0.95533649031813184</v>
       </c>
-      <c r="Z46" s="1">
-        <f>ABS($B$2-Y46)</f>
+      <c r="M74" s="4">
+        <f t="shared" si="16"/>
         <v>1.1925258558420637E-9</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="N74" s="4">
         <f>((1/(6*A9))*SIN($A$13)+(-1/(2*A9))*SIN($A$13-A9)+(1/(2*A9))*SIN($A$13+2*A9)+(-1/(6*A9))*SIN($A$13+3*A9))</f>
         <v>0.95533648912555691</v>
       </c>
-      <c r="AB46">
-        <f>ABS($B$2-AA46)</f>
+      <c r="O74" s="5">
+        <f t="shared" si="17"/>
         <v>4.9071857688431919E-14</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="P74" s="4">
         <f>((-2/(A9^2))*SIN($A$13)+(1/(A9^2))*SIN($A$13-A9)+(1/(A9^2))*SIN($A$13+A9))</f>
         <v>-0.29552020132541656</v>
       </c>
-      <c r="AD46">
-        <f t="shared" si="14"/>
+      <c r="Q74" s="5">
+        <f t="shared" si="18"/>
         <v>5.3359229812421916E-9</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49" t="s">
-        <v>19</v>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="1">
-        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2))/[1]Arkusz1!A2</f>
-        <v>0.93898135647310976</v>
-      </c>
-      <c r="C50">
-        <f>ABS(B50-$B$2)</f>
-        <v>1.6355132652496218E-2</v>
-      </c>
-      <c r="D50" s="1">
-        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A2)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A2) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A2))/[1]Arkusz1!A2</f>
-        <v>0.95531865594826848</v>
-      </c>
-      <c r="E50">
-        <f>ABS(D50-$B$2)</f>
-        <v>1.7833177337500672E-5</v>
-      </c>
-      <c r="F50" s="1">
-        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A2))/([1]Arkusz1!A2^2)</f>
-        <v>-0.38909393517584928</v>
-      </c>
-      <c r="G50">
-        <f>ABS(F50-[1]Arkusz1!$C$12)</f>
-        <v>9.3573728514509735E-2</v>
-      </c>
-      <c r="H50" s="1">
-        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A2) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A2) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A2) +(-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A2))/([1]Arkusz1!A2^2)</f>
-        <v>-0.29548326328389102</v>
-      </c>
-      <c r="I50">
-        <f>ABS(H50-[1]Arkusz1!$C$12)</f>
-        <v>3.6943377448528381E-5</v>
-      </c>
-      <c r="J50" s="1"/>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="1">
-        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3))/[1]Arkusz1!A3</f>
-        <v>0.94755201588223592</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:C57" si="15">ABS(B51-$B$2)</f>
-        <v>7.7844732433700603E-3</v>
-      </c>
-      <c r="D51" s="1">
-        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A3)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A3) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A3))/[1]Arkusz1!A3</f>
-        <v>0.95533533030638607</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ref="E51:E57" si="16">ABS(D51-$B$2)</f>
-        <v>1.1588192199152303E-6</v>
-      </c>
-      <c r="F51" s="1">
-        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A3))/([1]Arkusz1!A3^2)</f>
-        <v>-0.34282637636504626</v>
-      </c>
-      <c r="G51">
-        <f>ABS(F51-[1]Arkusz1!$C$12)</f>
-        <v>4.7306169703706713E-2</v>
-      </c>
-      <c r="H51" s="1">
-        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A3) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A3) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A3) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A3))/([1]Arkusz1!A3^2)</f>
-        <v>-0.29551833767169627</v>
-      </c>
-      <c r="I51">
-        <f>ABS(H51-[1]Arkusz1!$C$12)</f>
-        <v>1.8689896432722009E-6</v>
-      </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="1">
-        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4))/[1]Arkusz1!A4</f>
-        <v>0.95384297821039521</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="15"/>
-        <v>1.4935109152107717E-3</v>
-      </c>
-      <c r="D52" s="1">
-        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A4)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A4) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A4))/[1]Arkusz1!A4</f>
-        <v>0.9553364872250738</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="16"/>
-        <v>1.9005321760801053E-9</v>
-      </c>
-      <c r="F52" s="1">
-        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A4))/([1]Arkusz1!A4^2)</f>
-        <v>-0.30505609429687386</v>
-      </c>
-      <c r="G52">
-        <f>ABS(F52-[1]Arkusz1!$C$12)</f>
-        <v>9.5358876355343125E-3</v>
-      </c>
-      <c r="H52" s="1">
-        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A4) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A4) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A4) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A4))/([1]Arkusz1!A4^2)</f>
-        <v>-0.29552020426537595</v>
-      </c>
-      <c r="I52">
-        <f>ABS(H52-[1]Arkusz1!$C$12)</f>
-        <v>2.395963594192807E-9</v>
-      </c>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="1">
-        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5))/[1]Arkusz1!A5</f>
-        <v>0.95459370958439482</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="15"/>
-        <v>7.4277954121115819E-4</v>
-      </c>
-      <c r="D53" s="1">
-        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A5)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A5) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A5))/[1]Arkusz1!A5</f>
-        <v>0.95533648900651413</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="16"/>
-        <v>1.1909184749470114E-10</v>
-      </c>
-      <c r="F53" s="1">
-        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A5))/([1]Arkusz1!A5^2)</f>
-        <v>-0.30029254959984542</v>
-      </c>
-      <c r="G53">
-        <f>ABS(F53-[1]Arkusz1!$C$12)</f>
-        <v>4.7723429385058691E-3</v>
-      </c>
-      <c r="H53" s="1">
-        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A5) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A5) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A5) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A5))/([1]Arkusz1!A5^2)</f>
-        <v>-0.29552020652801048</v>
-      </c>
-      <c r="I53">
-        <f>ABS(H53-[1]Arkusz1!$C$12)</f>
-        <v>1.3332907000673799E-10</v>
-      </c>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="1">
-        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6))/[1]Arkusz1!A6</f>
-        <v>0.95518856981186007</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="15"/>
-        <v>1.4791931374591449E-4</v>
-      </c>
-      <c r="D54" s="1">
-        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A6)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A6) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A6))/[1]Arkusz1!A6</f>
-        <v>0.95533648912535241</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="16"/>
-        <v>2.5357493882438575E-13</v>
-      </c>
-      <c r="F54" s="1">
-        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A6))/([1]Arkusz1!A6^2)</f>
-        <v>-0.29647537053145712</v>
-      </c>
-      <c r="G54">
-        <f>ABS(F54-[1]Arkusz1!$C$12)</f>
-        <v>9.551638701175702E-4</v>
-      </c>
-      <c r="H54" s="1">
-        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A6) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A6) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A6) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A6))/([1]Arkusz1!A6^2)</f>
-        <v>-0.2955202077492558</v>
-      </c>
-      <c r="I54">
-        <f>ABS(H54-[1]Arkusz1!$C$12)</f>
-        <v>1.0879162570809342E-9</v>
-      </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="1">
-        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7))/[1]Arkusz1!A7</f>
-        <v>0.95526256926981024</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="15"/>
-        <v>7.3919855795745448E-5</v>
-      </c>
-      <c r="D55" s="1">
-        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A7)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A7) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A7))/[1]Arkusz1!A7</f>
-        <v>0.95533648912538016</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="16"/>
-        <v>2.2581936320875684E-13</v>
-      </c>
-      <c r="F55" s="1">
-        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A7))/([1]Arkusz1!A7^2)</f>
-        <v>-0.29599783180067618</v>
-      </c>
-      <c r="G55">
-        <f>ABS(F55-[1]Arkusz1!$C$12)</f>
-        <v>4.7762513933663486E-4</v>
-      </c>
-      <c r="H55" s="1">
-        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A7) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A7) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A7) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A7))/([1]Arkusz1!A7^2)</f>
-        <v>-0.2955202074161889</v>
-      </c>
-      <c r="I55">
-        <f>ABS(H55-[1]Arkusz1!$C$12)</f>
-        <v>7.5484934969338724E-10</v>
-      </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="1">
-        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8))/[1]Arkusz1!A8</f>
-        <v>0.95532171152323819</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="15"/>
-        <v>1.4777602367788134E-5</v>
-      </c>
-      <c r="D56" s="1">
-        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A8)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A8) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A8))/[1]Arkusz1!A8</f>
-        <v>0.95533648912585201</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="16"/>
-        <v>2.4602542225693469E-13</v>
-      </c>
-      <c r="F56" s="1">
-        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A8))/([1]Arkusz1!A8^2)</f>
-        <v>-0.29561574299563631</v>
-      </c>
-      <c r="G56">
-        <f>ABS(F56-[1]Arkusz1!$C$12)</f>
-        <v>9.5536334296764114E-5</v>
-      </c>
-      <c r="H56" s="1">
-        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A8) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A8) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A8) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A8))/([1]Arkusz1!A8^2)</f>
-        <v>-0.29552029434665172</v>
-      </c>
-      <c r="I56">
-        <f>ABS(H56-[1]Arkusz1!$C$12)</f>
-        <v>8.7685312177843144E-8</v>
-      </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="1">
-        <f>(-SIN([1]Arkusz1!$A$12) + SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9))/[1]Arkusz1!A9</f>
-        <v>0.95532910072249067</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="15"/>
-        <v>7.3884031153159668E-6</v>
-      </c>
-      <c r="D57" s="1">
-        <f>((-25/12)*SIN([1]Arkusz1!$A$12) + 4*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9) -3*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A9)+ (4/3)*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A9) - (1/4) * SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A9))/[1]Arkusz1!A9</f>
-        <v>0.955336489122105</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="16"/>
-        <v>3.5009772858529686E-12</v>
-      </c>
-      <c r="F57" s="1">
-        <f>(SIN([1]Arkusz1!$A$12) - 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9) + SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A9))/([1]Arkusz1!A9^2)</f>
-        <v>-0.29556797009888669</v>
-      </c>
-      <c r="G57">
-        <f>ABS(F57-[1]Arkusz1!$C$12)</f>
-        <v>4.7763437547143628E-5</v>
-      </c>
-      <c r="H57" s="1">
-        <f>((15/4)*SIN([1]Arkusz1!$A$12) + (-77/6)*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9) + (107/6)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A9) -13*SIN([1]Arkusz1!$A$12+3*[1]Arkusz1!A9) + (61/12)*SIN([1]Arkusz1!$A$12+4*[1]Arkusz1!A9) + (-5/6)*SIN([1]Arkusz1!$A$12+5*[1]Arkusz1!A9))/([1]Arkusz1!A9^2)</f>
-        <v>-0.29552035263336052</v>
-      </c>
-      <c r="I57">
-        <f>ABS(H57-[1]Arkusz1!$C$12)</f>
-        <v>1.4597202097066386E-7</v>
-      </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="1">
-        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A2) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A2))/[1]Arkusz1!A2</f>
-        <v>0.95843605323190251</v>
-      </c>
-      <c r="C60">
-        <f>ABS(B60-$B$2)</f>
-        <v>3.0995641062965262E-3</v>
-      </c>
-      <c r="D60" s="1">
-        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A2)-(3/2)*SIN($A$13+2*A2)+(1/3)*SIN($A$13+3*A2))/A2</f>
-        <v>0.95543831272203006</v>
-      </c>
-      <c r="E60">
-        <f>ABS(D60-$B$2)</f>
-        <v>1.0182359642407768E-4</v>
-      </c>
-      <c r="F60" s="1">
-        <f>((2*SIN($A$13)-5*SIN($A$13+A2)+4*SIN($A$13+2*A2)-SIN($A$13+3*A2)))/(A2^2)</f>
-        <v>-0.29916171987969248</v>
-      </c>
-      <c r="G60">
-        <f>ABS(F60-$C$2)</f>
-        <v>3.641513218352932E-3</v>
-      </c>
-      <c r="H60" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A2)+(19/2)*SIN($A$13+2*A2)-(14/3)*SIN($A$13+3*A2)+(11/12)*SIN($A$13+4*A2))/(A2^2)</f>
-        <v>-0.29477430484182715</v>
-      </c>
-      <c r="I60">
-        <f>ABS(H60-$C$2)</f>
-        <v>7.4590181951239565E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="1">
-        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A3) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A3))/[1]Arkusz1!A3</f>
-        <v>0.95612267529136263</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ref="C61:C67" si="17">ABS(B61-$B$2)</f>
-        <v>7.8618616575665268E-4</v>
-      </c>
-      <c r="D61" s="1">
-        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A3)-(3/2)*SIN($A$13+2*A3)+(1/3)*SIN($A$13+3*A3))/A3</f>
-        <v>0.95534749455998269</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ref="E61:E67" si="18">ABS(D61-$B$2)</f>
-        <v>1.1005434376709644E-5</v>
-      </c>
-      <c r="F61" s="1">
-        <f>((2*SIN($A$13)-5*SIN($A$13+A3)+4*SIN($A$13+2*A3)-SIN($A$13+3*A3)))/(A3^2)</f>
-        <v>-0.29631553248228298</v>
-      </c>
-      <c r="G61">
-        <f t="shared" ref="G61:G67" si="19">ABS(F61-$C$2)</f>
-        <v>7.9532582094343773E-4</v>
-      </c>
-      <c r="H61" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A3)+(19/2)*SIN($A$13+2*A3)-(14/3)*SIN($A$13+3*A3)+(11/12)*SIN($A$13+4*A3))/(A3^2)</f>
-        <v>-0.29542348721862671</v>
-      </c>
-      <c r="I61">
-        <f t="shared" ref="I61:I67" si="20">ABS(H61-$C$2)</f>
-        <v>9.6719442712833725E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="1">
-        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A4) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A4))/[1]Arkusz1!A4</f>
-        <v>0.95536825868188235</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="17"/>
-        <v>3.1769556276373123E-5</v>
-      </c>
-      <c r="D62" s="1">
-        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A4)-(3/2)*SIN($A$13+2*A4)+(1/3)*SIN($A$13+3*A4))/A4</f>
-        <v>0.95533656586540694</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="18"/>
-        <v>7.6739800958236515E-8</v>
-      </c>
-      <c r="F62" s="1">
-        <f>((2*SIN($A$13)-5*SIN($A$13+A4)+4*SIN($A$13+2*A4)-SIN($A$13+3*A4)))/(A4^2)</f>
-        <v>-0.29554824935718038</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="19"/>
-        <v>2.8042695840835297E-5</v>
-      </c>
-      <c r="H62" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A4)+(19/2)*SIN($A$13+2*A4)-(14/3)*SIN($A$13+3*A4)+(11/12)*SIN($A$13+4*A4))/(A4^2)</f>
-        <v>-0.29551941456762432</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="20"/>
-        <v>7.9209371522948047E-7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="1">
-        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A5) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A5))/[1]Arkusz1!A5</f>
-        <v>0.95534444095839999</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="17"/>
-        <v>7.9518327940064637E-6</v>
-      </c>
-      <c r="D63" s="1">
-        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A5)-(3/2)*SIN($A$13+2*A5)+(1/3)*SIN($A$13+3*A5))/A5</f>
-        <v>0.95533649853957181</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="18"/>
-        <v>9.4139658290970374E-9</v>
-      </c>
-      <c r="F63" s="1">
-        <f>((2*SIN($A$13)-5*SIN($A$13+A5)+4*SIN($A$13+2*A5)-SIN($A$13+3*A5)))/(A5^2)</f>
-        <v>-0.29552709829294699</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="19"/>
-        <v>6.8916316074418837E-6</v>
-      </c>
-      <c r="H63" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A5)+(19/2)*SIN($A$13+2*A5)-(14/3)*SIN($A$13+3*A5)+(11/12)*SIN($A$13+4*A5))/(A5^2)</f>
-        <v>-0.29552010739397616</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="20"/>
-        <v>9.9267363384836216E-8</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="1">
-        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A6) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A6))/[1]Arkusz1!A6</f>
-        <v>0.95533680749715355</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="17"/>
-        <v>3.1837154756964026E-7</v>
-      </c>
-      <c r="D64" s="1">
-        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A6)-(3/2)*SIN($A$13+2*A6)+(1/3)*SIN($A$13+3*A6))/A6</f>
-        <v>0.95533648919979286</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="18"/>
-        <v>7.418687886229236E-11</v>
-      </c>
-      <c r="F64" s="1">
-        <f>((2*SIN($A$13)-5*SIN($A$13+A6)+4*SIN($A$13+2*A6)-SIN($A$13+3*A6)))/(A6^2)</f>
-        <v>-0.29552047853265151</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="19"/>
-        <v>2.7187131196315661E-7</v>
-      </c>
-      <c r="H64" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A6)+(19/2)*SIN($A$13+2*A6)-(14/3)*SIN($A$13+3*A6)+(11/12)*SIN($A$13+4*A6))/(A6^2)</f>
-        <v>-0.29552020602841012</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="20"/>
-        <v>6.3292943108805844E-10</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="1">
-        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A7) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A7))/[1]Arkusz1!A7</f>
-        <v>0.95533656872781592</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="17"/>
-        <v>7.9602209934748203E-8</v>
-      </c>
-      <c r="D65" s="1">
-        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A7)-(3/2)*SIN($A$13+2*A7)+(1/3)*SIN($A$13+3*A7))/A7</f>
-        <v>0.95533648913487257</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="18"/>
-        <v>9.2665874973363316E-12</v>
-      </c>
-      <c r="F65" s="1">
-        <f>((2*SIN($A$13)-5*SIN($A$13+A7)+4*SIN($A$13+2*A7)-SIN($A$13+3*A7)))/(A7^2)</f>
-        <v>-0.29552027447365958</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="19"/>
-        <v>6.7812320037052842E-8</v>
-      </c>
-      <c r="H65" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A7)+(19/2)*SIN($A$13+2*A7)-(14/3)*SIN($A$13+3*A7)+(11/12)*SIN($A$13+4*A7))/(A7^2)</f>
-        <v>-0.2955202076382335</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="20"/>
-        <v>9.7689395461841855E-10</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="1">
-        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A8) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A8))/[1]Arkusz1!A8</f>
-        <v>0.95533649231066553</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="17"/>
-        <v>3.1850595494375966E-9</v>
-      </c>
-      <c r="D66" s="1">
-        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A8)-(3/2)*SIN($A$13+2*A8)+(1/3)*SIN($A$13+3*A8))/A8</f>
-        <v>0.95533648912682345</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="18"/>
-        <v>1.2174705688039467E-12</v>
-      </c>
-      <c r="F66" s="1">
-        <f>((2*SIN($A$13)-5*SIN($A$13+A8)+4*SIN($A$13+2*A8)-SIN($A$13+3*A8)))/(A8^2)</f>
-        <v>-0.29552021940659756</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="19"/>
-        <v>1.2745258015645078E-8</v>
-      </c>
-      <c r="H66" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A8)+(19/2)*SIN($A$13+2*A8)-(14/3)*SIN($A$13+3*A8)+(11/12)*SIN($A$13+4*A8))/(A8^2)</f>
-        <v>-0.29552020830436732</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="20"/>
-        <v>1.6430277693935125E-9</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="1">
-        <f>(SIN([1]Arkusz1!$A$12)*(-3/2) + 2*SIN([1]Arkusz1!$A$12+[1]Arkusz1!A9) - (1/2)*SIN([1]Arkusz1!$A$12+2*[1]Arkusz1!A9))/[1]Arkusz1!A9</f>
-        <v>0.95533648992229825</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="17"/>
-        <v>7.9669226771272861E-10</v>
-      </c>
-      <c r="D67" s="1">
-        <f>((-11/6)*SIN($A$13)+3*SIN($A$13+A9)-(3/2)*SIN($A$13+2*A9)+(1/3)*SIN($A$13+3*A9))/A9</f>
-        <v>0.95533648912599078</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="18"/>
-        <v>3.8480330033507926E-13</v>
-      </c>
-      <c r="F67" s="1">
-        <f>((2*SIN($A$13)-5*SIN($A$13+A9)+4*SIN($A$13+2*A9)-SIN($A$13+3*A9)))/(A9^2)</f>
-        <v>-0.29552016389544633</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="19"/>
-        <v>4.2765893215612749E-8</v>
-      </c>
-      <c r="H67" s="1">
-        <f>((35/12)*SIN($A$13)-(26/3)*SIN($A$13+A9)+(19/2)*SIN($A$13+2*A9)-(14/3)*SIN($A$13+3*A9)+(11/12)*SIN($A$13+4*A9))/(A9^2)</f>
-        <v>-0.29552029712220929</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="20"/>
-        <v>9.0460869739406036E-8</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D68" s="1"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" t="s">
-        <v>33</v>
-      </c>
-      <c r="H99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F125" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
